--- a/src/test/resources/ScrapeData/recipes_PCOS.xlsx
+++ b/src/test/resources/ScrapeData/recipes_PCOS.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="383">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="385">
   <si>
     <t>ReceipeID</t>
   </si>
@@ -39,6 +39,12 @@
   </si>
   <si>
     <t>URL</t>
+  </si>
+  <si>
+    <t>Allergy_Filter</t>
+  </si>
+  <si>
+    <t>To_Add_Filter</t>
   </si>
   <si>
     <t>33430</t>
@@ -3149,8 +3155,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="550">
+  <cellXfs count="552">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment wrapText="true"/>
     </xf>
@@ -4804,7 +4816,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I61"/>
+  <dimension ref="A1:K61"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -4838,1745 +4850,1751 @@
       <c r="I1" t="s" s="9">
         <v>8</v>
       </c>
+      <c r="J1" t="s" s="10">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s" s="11">
+        <v>10</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="10">
-        <v>9</v>
-      </c>
-      <c r="B2" t="s" s="11">
-        <v>10</v>
-      </c>
-      <c r="C2" t="s" s="12">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s" s="13">
+      <c r="A2" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="E2" t="s" s="14">
+      <c r="B2" t="s" s="13">
         <v>12</v>
       </c>
-      <c r="F2" t="s" s="15">
+      <c r="C2" t="s" s="14">
         <v>12</v>
       </c>
-      <c r="G2" t="s" s="16">
+      <c r="D2" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="H2" t="s" s="17">
+      <c r="E2" t="s" s="16">
         <v>14</v>
       </c>
-      <c r="I2" t="s" s="18">
+      <c r="F2" t="s" s="17">
+        <v>14</v>
+      </c>
+      <c r="G2" t="s" s="18">
         <v>15</v>
+      </c>
+      <c r="H2" t="s" s="19">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s" s="20">
+        <v>17</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="19">
-        <v>16</v>
-      </c>
-      <c r="B3" t="s" s="20">
-        <v>17</v>
-      </c>
-      <c r="C3" t="s" s="21">
-        <v>17</v>
-      </c>
-      <c r="D3" t="s" s="22">
+      <c r="A3" t="s" s="21">
         <v>18</v>
       </c>
-      <c r="E3" t="s" s="23">
+      <c r="B3" t="s" s="22">
         <v>19</v>
       </c>
-      <c r="F3" t="s" s="24">
+      <c r="C3" t="s" s="23">
+        <v>19</v>
+      </c>
+      <c r="D3" t="s" s="24">
         <v>20</v>
       </c>
-      <c r="G3" t="s" s="25">
+      <c r="E3" t="s" s="25">
         <v>21</v>
       </c>
-      <c r="H3" t="s" s="26">
+      <c r="F3" t="s" s="26">
         <v>22</v>
       </c>
-      <c r="I3" t="s" s="27">
+      <c r="G3" t="s" s="27">
         <v>23</v>
+      </c>
+      <c r="H3" t="s" s="28">
+        <v>24</v>
+      </c>
+      <c r="I3" t="s" s="29">
+        <v>25</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="28">
-        <v>24</v>
-      </c>
-      <c r="B4" t="s" s="29">
-        <v>25</v>
-      </c>
-      <c r="C4" t="s" s="30">
-        <v>25</v>
-      </c>
-      <c r="D4" t="s" s="31">
+      <c r="A4" t="s" s="30">
         <v>26</v>
       </c>
-      <c r="E4" t="s" s="32">
+      <c r="B4" t="s" s="31">
         <v>27</v>
       </c>
-      <c r="F4" t="s" s="33">
-        <v>19</v>
-      </c>
-      <c r="G4" t="s" s="34">
+      <c r="C4" t="s" s="32">
+        <v>27</v>
+      </c>
+      <c r="D4" t="s" s="33">
         <v>28</v>
       </c>
-      <c r="H4" t="s" s="35">
+      <c r="E4" t="s" s="34">
         <v>29</v>
       </c>
-      <c r="I4" t="s" s="36">
+      <c r="F4" t="s" s="35">
+        <v>21</v>
+      </c>
+      <c r="G4" t="s" s="36">
         <v>30</v>
+      </c>
+      <c r="H4" t="s" s="37">
+        <v>31</v>
+      </c>
+      <c r="I4" t="s" s="38">
+        <v>32</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="37">
-        <v>31</v>
-      </c>
-      <c r="B5" t="s" s="38">
-        <v>32</v>
-      </c>
-      <c r="C5" t="s" s="39">
-        <v>32</v>
-      </c>
-      <c r="D5" t="s" s="40">
+      <c r="A5" t="s" s="39">
         <v>33</v>
       </c>
-      <c r="E5" t="s" s="41">
+      <c r="B5" t="s" s="40">
         <v>34</v>
       </c>
-      <c r="F5" t="s" s="42">
-        <v>20</v>
-      </c>
-      <c r="G5" t="s" s="43">
+      <c r="C5" t="s" s="41">
+        <v>34</v>
+      </c>
+      <c r="D5" t="s" s="42">
         <v>35</v>
       </c>
-      <c r="H5" t="s" s="44">
+      <c r="E5" t="s" s="43">
         <v>36</v>
       </c>
-      <c r="I5" t="s" s="45">
+      <c r="F5" t="s" s="44">
+        <v>22</v>
+      </c>
+      <c r="G5" t="s" s="45">
         <v>37</v>
+      </c>
+      <c r="H5" t="s" s="46">
+        <v>38</v>
+      </c>
+      <c r="I5" t="s" s="47">
+        <v>39</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s" s="46">
-        <v>38</v>
-      </c>
-      <c r="B6" t="s" s="47">
-        <v>39</v>
-      </c>
-      <c r="C6" t="s" s="48">
-        <v>39</v>
-      </c>
-      <c r="D6" t="s" s="49">
+      <c r="A6" t="s" s="48">
         <v>40</v>
       </c>
-      <c r="E6" t="s" s="50">
+      <c r="B6" t="s" s="49">
         <v>41</v>
       </c>
-      <c r="F6" t="s" s="51">
+      <c r="C6" t="s" s="50">
+        <v>41</v>
+      </c>
+      <c r="D6" t="s" s="51">
         <v>42</v>
       </c>
-      <c r="G6" t="s" s="52">
+      <c r="E6" t="s" s="52">
         <v>43</v>
       </c>
-      <c r="H6" t="s" s="53">
-        <v>14</v>
-      </c>
-      <c r="I6" t="s" s="54">
+      <c r="F6" t="s" s="53">
         <v>44</v>
+      </c>
+      <c r="G6" t="s" s="54">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s" s="55">
+        <v>16</v>
+      </c>
+      <c r="I6" t="s" s="56">
+        <v>46</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="s" s="55">
-        <v>45</v>
-      </c>
-      <c r="B7" t="s" s="56">
-        <v>46</v>
-      </c>
-      <c r="C7" t="s" s="57">
-        <v>46</v>
-      </c>
-      <c r="D7" t="s" s="58">
+      <c r="A7" t="s" s="57">
         <v>47</v>
       </c>
-      <c r="E7" t="s" s="59">
-        <v>20</v>
-      </c>
-      <c r="F7" t="s" s="60">
-        <v>20</v>
-      </c>
-      <c r="G7" t="s" s="61">
+      <c r="B7" t="s" s="58">
         <v>48</v>
       </c>
-      <c r="H7" t="s" s="62">
+      <c r="C7" t="s" s="59">
+        <v>48</v>
+      </c>
+      <c r="D7" t="s" s="60">
         <v>49</v>
       </c>
-      <c r="I7" t="s" s="63">
+      <c r="E7" t="s" s="61">
+        <v>22</v>
+      </c>
+      <c r="F7" t="s" s="62">
+        <v>22</v>
+      </c>
+      <c r="G7" t="s" s="63">
         <v>50</v>
+      </c>
+      <c r="H7" t="s" s="64">
+        <v>51</v>
+      </c>
+      <c r="I7" t="s" s="65">
+        <v>52</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="s" s="64">
-        <v>51</v>
-      </c>
-      <c r="B8" t="s" s="65">
-        <v>52</v>
-      </c>
-      <c r="C8" t="s" s="66">
-        <v>52</v>
-      </c>
-      <c r="D8" t="s" s="67">
+      <c r="A8" t="s" s="66">
         <v>53</v>
       </c>
-      <c r="E8" t="s" s="68">
+      <c r="B8" t="s" s="67">
         <v>54</v>
       </c>
-      <c r="F8" t="s" s="69">
-        <v>20</v>
-      </c>
-      <c r="G8" t="s" s="70">
+      <c r="C8" t="s" s="68">
+        <v>54</v>
+      </c>
+      <c r="D8" t="s" s="69">
         <v>55</v>
       </c>
-      <c r="H8" t="s" s="71">
+      <c r="E8" t="s" s="70">
         <v>56</v>
       </c>
-      <c r="I8" t="s" s="72">
+      <c r="F8" t="s" s="71">
+        <v>22</v>
+      </c>
+      <c r="G8" t="s" s="72">
         <v>57</v>
+      </c>
+      <c r="H8" t="s" s="73">
+        <v>58</v>
+      </c>
+      <c r="I8" t="s" s="74">
+        <v>59</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="73">
-        <v>58</v>
-      </c>
-      <c r="B9" t="s" s="74">
-        <v>59</v>
-      </c>
-      <c r="C9" t="s" s="75">
-        <v>59</v>
-      </c>
-      <c r="D9" t="s" s="76">
+      <c r="A9" t="s" s="75">
         <v>60</v>
       </c>
-      <c r="E9" t="s" s="77">
-        <v>54</v>
-      </c>
-      <c r="F9" t="s" s="78">
-        <v>12</v>
-      </c>
-      <c r="G9" t="s" s="79">
+      <c r="B9" t="s" s="76">
         <v>61</v>
       </c>
-      <c r="H9" t="s" s="80">
+      <c r="C9" t="s" s="77">
+        <v>61</v>
+      </c>
+      <c r="D9" t="s" s="78">
         <v>62</v>
       </c>
-      <c r="I9" t="s" s="81">
+      <c r="E9" t="s" s="79">
+        <v>56</v>
+      </c>
+      <c r="F9" t="s" s="80">
+        <v>14</v>
+      </c>
+      <c r="G9" t="s" s="81">
         <v>63</v>
+      </c>
+      <c r="H9" t="s" s="82">
+        <v>64</v>
+      </c>
+      <c r="I9" t="s" s="83">
+        <v>65</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="s" s="82">
-        <v>64</v>
-      </c>
-      <c r="B10" t="s" s="83">
-        <v>65</v>
-      </c>
-      <c r="C10" t="s" s="84">
-        <v>65</v>
-      </c>
-      <c r="D10" t="s" s="85">
+      <c r="A10" t="s" s="84">
         <v>66</v>
       </c>
-      <c r="E10" t="s" s="86">
+      <c r="B10" t="s" s="85">
         <v>67</v>
       </c>
-      <c r="F10" t="s" s="87">
-        <v>20</v>
-      </c>
-      <c r="G10" t="s" s="88">
+      <c r="C10" t="s" s="86">
+        <v>67</v>
+      </c>
+      <c r="D10" t="s" s="87">
         <v>68</v>
       </c>
-      <c r="H10" t="s" s="89">
-        <v>14</v>
-      </c>
-      <c r="I10" t="s" s="90">
+      <c r="E10" t="s" s="88">
         <v>69</v>
+      </c>
+      <c r="F10" t="s" s="89">
+        <v>22</v>
+      </c>
+      <c r="G10" t="s" s="90">
+        <v>70</v>
+      </c>
+      <c r="H10" t="s" s="91">
+        <v>16</v>
+      </c>
+      <c r="I10" t="s" s="92">
+        <v>71</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s" s="91">
-        <v>70</v>
-      </c>
-      <c r="B11" t="s" s="92">
-        <v>71</v>
-      </c>
-      <c r="C11" t="s" s="93">
-        <v>71</v>
-      </c>
-      <c r="D11" t="s" s="94">
+      <c r="A11" t="s" s="93">
         <v>72</v>
       </c>
-      <c r="E11" t="s" s="95">
-        <v>20</v>
-      </c>
-      <c r="F11" t="s" s="96">
-        <v>19</v>
-      </c>
-      <c r="G11" t="s" s="97">
+      <c r="B11" t="s" s="94">
         <v>73</v>
       </c>
-      <c r="H11" t="s" s="98">
+      <c r="C11" t="s" s="95">
+        <v>73</v>
+      </c>
+      <c r="D11" t="s" s="96">
         <v>74</v>
       </c>
-      <c r="I11" t="s" s="99">
+      <c r="E11" t="s" s="97">
+        <v>22</v>
+      </c>
+      <c r="F11" t="s" s="98">
+        <v>21</v>
+      </c>
+      <c r="G11" t="s" s="99">
         <v>75</v>
+      </c>
+      <c r="H11" t="s" s="100">
+        <v>76</v>
+      </c>
+      <c r="I11" t="s" s="101">
+        <v>77</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s" s="100">
-        <v>76</v>
-      </c>
-      <c r="B12" t="s" s="101">
-        <v>77</v>
-      </c>
-      <c r="C12" t="s" s="102">
-        <v>77</v>
-      </c>
-      <c r="D12" t="s" s="103">
+      <c r="A12" t="s" s="102">
         <v>78</v>
       </c>
-      <c r="E12" t="s" s="104">
-        <v>19</v>
-      </c>
-      <c r="F12" t="s" s="105">
-        <v>19</v>
-      </c>
-      <c r="G12" t="s" s="106">
+      <c r="B12" t="s" s="103">
         <v>79</v>
       </c>
-      <c r="H12" t="s" s="107">
+      <c r="C12" t="s" s="104">
+        <v>79</v>
+      </c>
+      <c r="D12" t="s" s="105">
         <v>80</v>
       </c>
-      <c r="I12" t="s" s="108">
+      <c r="E12" t="s" s="106">
+        <v>21</v>
+      </c>
+      <c r="F12" t="s" s="107">
+        <v>21</v>
+      </c>
+      <c r="G12" t="s" s="108">
         <v>81</v>
+      </c>
+      <c r="H12" t="s" s="109">
+        <v>82</v>
+      </c>
+      <c r="I12" t="s" s="110">
+        <v>83</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s" s="109">
-        <v>82</v>
-      </c>
-      <c r="B13" t="s" s="110">
-        <v>83</v>
-      </c>
-      <c r="C13" t="s" s="111">
-        <v>83</v>
-      </c>
-      <c r="D13" t="s" s="112">
+      <c r="A13" t="s" s="111">
         <v>84</v>
       </c>
-      <c r="E13" t="s" s="113">
+      <c r="B13" t="s" s="112">
         <v>85</v>
       </c>
-      <c r="F13" t="s" s="114">
-        <v>12</v>
-      </c>
-      <c r="G13" t="s" s="115">
+      <c r="C13" t="s" s="113">
+        <v>85</v>
+      </c>
+      <c r="D13" t="s" s="114">
         <v>86</v>
       </c>
-      <c r="H13" t="s" s="116">
+      <c r="E13" t="s" s="115">
         <v>87</v>
       </c>
-      <c r="I13" t="s" s="117">
+      <c r="F13" t="s" s="116">
+        <v>14</v>
+      </c>
+      <c r="G13" t="s" s="117">
         <v>88</v>
+      </c>
+      <c r="H13" t="s" s="118">
+        <v>89</v>
+      </c>
+      <c r="I13" t="s" s="119">
+        <v>90</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="s" s="118">
-        <v>89</v>
-      </c>
-      <c r="B14" t="s" s="119">
-        <v>90</v>
-      </c>
-      <c r="C14" t="s" s="120">
-        <v>90</v>
-      </c>
-      <c r="D14" t="s" s="121">
+      <c r="A14" t="s" s="120">
         <v>91</v>
       </c>
-      <c r="E14" t="s" s="122">
-        <v>19</v>
-      </c>
-      <c r="F14" t="s" s="123">
-        <v>12</v>
-      </c>
-      <c r="G14" t="s" s="124">
+      <c r="B14" t="s" s="121">
         <v>92</v>
       </c>
-      <c r="H14" t="s" s="125">
+      <c r="C14" t="s" s="122">
+        <v>92</v>
+      </c>
+      <c r="D14" t="s" s="123">
         <v>93</v>
       </c>
-      <c r="I14" t="s" s="126">
+      <c r="E14" t="s" s="124">
+        <v>21</v>
+      </c>
+      <c r="F14" t="s" s="125">
+        <v>14</v>
+      </c>
+      <c r="G14" t="s" s="126">
         <v>94</v>
+      </c>
+      <c r="H14" t="s" s="127">
+        <v>95</v>
+      </c>
+      <c r="I14" t="s" s="128">
+        <v>96</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="127">
-        <v>95</v>
-      </c>
-      <c r="B15" t="s" s="128">
-        <v>96</v>
-      </c>
-      <c r="C15" t="s" s="129">
-        <v>96</v>
-      </c>
-      <c r="D15" t="s" s="130">
+      <c r="A15" t="s" s="129">
         <v>97</v>
       </c>
-      <c r="E15" t="s" s="131">
-        <v>27</v>
-      </c>
-      <c r="F15" t="s" s="132">
-        <v>19</v>
-      </c>
-      <c r="G15" t="s" s="133">
+      <c r="B15" t="s" s="130">
         <v>98</v>
       </c>
-      <c r="H15" t="s" s="134">
+      <c r="C15" t="s" s="131">
+        <v>98</v>
+      </c>
+      <c r="D15" t="s" s="132">
         <v>99</v>
       </c>
-      <c r="I15" t="s" s="135">
+      <c r="E15" t="s" s="133">
+        <v>29</v>
+      </c>
+      <c r="F15" t="s" s="134">
+        <v>21</v>
+      </c>
+      <c r="G15" t="s" s="135">
         <v>100</v>
+      </c>
+      <c r="H15" t="s" s="136">
+        <v>101</v>
+      </c>
+      <c r="I15" t="s" s="137">
+        <v>102</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="s" s="136">
-        <v>101</v>
-      </c>
-      <c r="B16" t="s" s="137">
-        <v>102</v>
-      </c>
-      <c r="C16" t="s" s="138">
-        <v>102</v>
-      </c>
-      <c r="D16" t="s" s="139">
+      <c r="A16" t="s" s="138">
         <v>103</v>
       </c>
-      <c r="E16" t="s" s="140">
+      <c r="B16" t="s" s="139">
         <v>104</v>
       </c>
-      <c r="F16" t="s" s="141">
-        <v>54</v>
-      </c>
-      <c r="G16" t="s" s="142">
+      <c r="C16" t="s" s="140">
+        <v>104</v>
+      </c>
+      <c r="D16" t="s" s="141">
         <v>105</v>
       </c>
-      <c r="H16" t="s" s="143">
+      <c r="E16" t="s" s="142">
         <v>106</v>
       </c>
-      <c r="I16" t="s" s="144">
+      <c r="F16" t="s" s="143">
+        <v>56</v>
+      </c>
+      <c r="G16" t="s" s="144">
         <v>107</v>
+      </c>
+      <c r="H16" t="s" s="145">
+        <v>108</v>
+      </c>
+      <c r="I16" t="s" s="146">
+        <v>109</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s" s="145">
-        <v>108</v>
-      </c>
-      <c r="B17" t="s" s="146">
-        <v>109</v>
-      </c>
-      <c r="C17" t="s" s="147">
-        <v>109</v>
-      </c>
-      <c r="D17" t="s" s="148">
+      <c r="A17" t="s" s="147">
         <v>110</v>
       </c>
-      <c r="E17" t="s" s="149">
-        <v>42</v>
-      </c>
-      <c r="F17" t="s" s="150">
-        <v>19</v>
-      </c>
-      <c r="G17" t="s" s="151">
+      <c r="B17" t="s" s="148">
         <v>111</v>
       </c>
-      <c r="H17" t="s" s="152">
+      <c r="C17" t="s" s="149">
+        <v>111</v>
+      </c>
+      <c r="D17" t="s" s="150">
         <v>112</v>
       </c>
-      <c r="I17" t="s" s="153">
+      <c r="E17" t="s" s="151">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s" s="152">
+        <v>21</v>
+      </c>
+      <c r="G17" t="s" s="153">
         <v>113</v>
+      </c>
+      <c r="H17" t="s" s="154">
+        <v>114</v>
+      </c>
+      <c r="I17" t="s" s="155">
+        <v>115</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="s" s="154">
-        <v>114</v>
-      </c>
-      <c r="B18" t="s" s="155">
-        <v>115</v>
-      </c>
-      <c r="C18" t="s" s="156">
-        <v>115</v>
-      </c>
-      <c r="D18" t="s" s="157">
+      <c r="A18" t="s" s="156">
         <v>116</v>
       </c>
-      <c r="E18" t="s" s="158">
-        <v>20</v>
-      </c>
-      <c r="F18" t="s" s="159">
-        <v>104</v>
-      </c>
-      <c r="G18" t="s" s="160">
+      <c r="B18" t="s" s="157">
         <v>117</v>
       </c>
-      <c r="H18" t="s" s="161">
+      <c r="C18" t="s" s="158">
+        <v>117</v>
+      </c>
+      <c r="D18" t="s" s="159">
         <v>118</v>
       </c>
-      <c r="I18" t="s" s="162">
+      <c r="E18" t="s" s="160">
+        <v>22</v>
+      </c>
+      <c r="F18" t="s" s="161">
+        <v>106</v>
+      </c>
+      <c r="G18" t="s" s="162">
         <v>119</v>
+      </c>
+      <c r="H18" t="s" s="163">
+        <v>120</v>
+      </c>
+      <c r="I18" t="s" s="164">
+        <v>121</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="s" s="163">
-        <v>120</v>
-      </c>
-      <c r="B19" t="s" s="164">
-        <v>121</v>
-      </c>
-      <c r="C19" t="s" s="165">
-        <v>121</v>
-      </c>
-      <c r="D19" t="s" s="166">
+      <c r="A19" t="s" s="165">
         <v>122</v>
       </c>
-      <c r="E19" t="s" s="167">
-        <v>12</v>
-      </c>
-      <c r="F19" t="s" s="168">
-        <v>104</v>
-      </c>
-      <c r="G19" t="s" s="169">
+      <c r="B19" t="s" s="166">
         <v>123</v>
       </c>
-      <c r="H19" t="s" s="170">
+      <c r="C19" t="s" s="167">
+        <v>123</v>
+      </c>
+      <c r="D19" t="s" s="168">
         <v>124</v>
       </c>
-      <c r="I19" t="s" s="171">
+      <c r="E19" t="s" s="169">
+        <v>14</v>
+      </c>
+      <c r="F19" t="s" s="170">
+        <v>106</v>
+      </c>
+      <c r="G19" t="s" s="171">
         <v>125</v>
+      </c>
+      <c r="H19" t="s" s="172">
+        <v>126</v>
+      </c>
+      <c r="I19" t="s" s="173">
+        <v>127</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="s" s="172">
-        <v>126</v>
-      </c>
-      <c r="B20" t="s" s="173">
-        <v>127</v>
-      </c>
-      <c r="C20" t="s" s="174">
-        <v>127</v>
-      </c>
-      <c r="D20" t="s" s="175">
+      <c r="A20" t="s" s="174">
         <v>128</v>
       </c>
-      <c r="E20" t="s" s="176">
+      <c r="B20" t="s" s="175">
         <v>129</v>
       </c>
-      <c r="F20" t="s" s="177">
-        <v>19</v>
-      </c>
-      <c r="G20" t="s" s="178">
+      <c r="C20" t="s" s="176">
+        <v>129</v>
+      </c>
+      <c r="D20" t="s" s="177">
         <v>130</v>
       </c>
-      <c r="H20" t="s" s="179">
+      <c r="E20" t="s" s="178">
         <v>131</v>
       </c>
-      <c r="I20" t="s" s="180">
+      <c r="F20" t="s" s="179">
+        <v>21</v>
+      </c>
+      <c r="G20" t="s" s="180">
         <v>132</v>
+      </c>
+      <c r="H20" t="s" s="181">
+        <v>133</v>
+      </c>
+      <c r="I20" t="s" s="182">
+        <v>134</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s" s="181">
-        <v>133</v>
-      </c>
-      <c r="B21" t="s" s="182">
-        <v>134</v>
-      </c>
-      <c r="C21" t="s" s="183">
-        <v>134</v>
-      </c>
-      <c r="D21" t="s" s="184">
+      <c r="A21" t="s" s="183">
         <v>135</v>
       </c>
-      <c r="E21" t="s" s="185">
+      <c r="B21" t="s" s="184">
         <v>136</v>
       </c>
-      <c r="F21" t="s" s="186">
-        <v>19</v>
-      </c>
-      <c r="G21" t="s" s="187">
+      <c r="C21" t="s" s="185">
+        <v>136</v>
+      </c>
+      <c r="D21" t="s" s="186">
         <v>137</v>
       </c>
-      <c r="H21" t="s" s="188">
+      <c r="E21" t="s" s="187">
         <v>138</v>
       </c>
-      <c r="I21" t="s" s="189">
+      <c r="F21" t="s" s="188">
+        <v>21</v>
+      </c>
+      <c r="G21" t="s" s="189">
         <v>139</v>
+      </c>
+      <c r="H21" t="s" s="190">
+        <v>140</v>
+      </c>
+      <c r="I21" t="s" s="191">
+        <v>141</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="s" s="190">
-        <v>140</v>
-      </c>
-      <c r="B22" t="s" s="191">
-        <v>141</v>
-      </c>
-      <c r="C22" t="s" s="192">
-        <v>141</v>
-      </c>
-      <c r="D22" t="s" s="193">
+      <c r="A22" t="s" s="192">
         <v>142</v>
       </c>
-      <c r="E22" t="s" s="194">
-        <v>104</v>
-      </c>
-      <c r="F22" t="s" s="195">
-        <v>19</v>
-      </c>
-      <c r="G22" t="s" s="196">
+      <c r="B22" t="s" s="193">
         <v>143</v>
       </c>
-      <c r="H22" t="s" s="197">
+      <c r="C22" t="s" s="194">
+        <v>143</v>
+      </c>
+      <c r="D22" t="s" s="195">
         <v>144</v>
       </c>
-      <c r="I22" t="s" s="198">
+      <c r="E22" t="s" s="196">
+        <v>106</v>
+      </c>
+      <c r="F22" t="s" s="197">
+        <v>21</v>
+      </c>
+      <c r="G22" t="s" s="198">
         <v>145</v>
+      </c>
+      <c r="H22" t="s" s="199">
+        <v>146</v>
+      </c>
+      <c r="I22" t="s" s="200">
+        <v>147</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="s" s="199">
-        <v>146</v>
-      </c>
-      <c r="B23" t="s" s="200">
-        <v>147</v>
-      </c>
-      <c r="C23" t="s" s="201">
-        <v>147</v>
-      </c>
-      <c r="D23" t="s" s="202">
+      <c r="A23" t="s" s="201">
         <v>148</v>
       </c>
-      <c r="E23" t="s" s="203">
-        <v>42</v>
-      </c>
-      <c r="F23" t="s" s="204">
-        <v>42</v>
-      </c>
-      <c r="G23" t="s" s="205">
+      <c r="B23" t="s" s="202">
         <v>149</v>
       </c>
-      <c r="H23" t="s" s="206">
+      <c r="C23" t="s" s="203">
+        <v>149</v>
+      </c>
+      <c r="D23" t="s" s="204">
         <v>150</v>
       </c>
-      <c r="I23" t="s" s="207">
+      <c r="E23" t="s" s="205">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s" s="206">
+        <v>44</v>
+      </c>
+      <c r="G23" t="s" s="207">
         <v>151</v>
+      </c>
+      <c r="H23" t="s" s="208">
+        <v>152</v>
+      </c>
+      <c r="I23" t="s" s="209">
+        <v>153</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="s" s="208">
-        <v>152</v>
-      </c>
-      <c r="B24" t="s" s="209">
-        <v>153</v>
-      </c>
-      <c r="C24" t="s" s="210">
-        <v>153</v>
-      </c>
-      <c r="D24" t="s" s="211">
+      <c r="A24" t="s" s="210">
         <v>154</v>
       </c>
-      <c r="E24" t="s" s="212">
-        <v>104</v>
-      </c>
-      <c r="F24" t="s" s="213">
-        <v>12</v>
-      </c>
-      <c r="G24" t="s" s="214">
+      <c r="B24" t="s" s="211">
         <v>155</v>
       </c>
-      <c r="H24" t="s" s="215">
+      <c r="C24" t="s" s="212">
+        <v>155</v>
+      </c>
+      <c r="D24" t="s" s="213">
         <v>156</v>
       </c>
-      <c r="I24" t="s" s="216">
+      <c r="E24" t="s" s="214">
+        <v>106</v>
+      </c>
+      <c r="F24" t="s" s="215">
+        <v>14</v>
+      </c>
+      <c r="G24" t="s" s="216">
         <v>157</v>
+      </c>
+      <c r="H24" t="s" s="217">
+        <v>158</v>
+      </c>
+      <c r="I24" t="s" s="218">
+        <v>159</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="s" s="217">
-        <v>158</v>
-      </c>
-      <c r="B25" t="s" s="218">
-        <v>159</v>
-      </c>
-      <c r="C25" t="s" s="219">
-        <v>159</v>
-      </c>
-      <c r="D25" t="s" s="220">
+      <c r="A25" t="s" s="219">
         <v>160</v>
       </c>
-      <c r="E25" t="s" s="221">
+      <c r="B25" t="s" s="220">
         <v>161</v>
       </c>
-      <c r="F25" t="s" s="222">
-        <v>12</v>
-      </c>
-      <c r="G25" t="s" s="223">
+      <c r="C25" t="s" s="221">
+        <v>161</v>
+      </c>
+      <c r="D25" t="s" s="222">
         <v>162</v>
       </c>
-      <c r="H25" t="s" s="224">
+      <c r="E25" t="s" s="223">
         <v>163</v>
       </c>
-      <c r="I25" t="s" s="225">
+      <c r="F25" t="s" s="224">
+        <v>14</v>
+      </c>
+      <c r="G25" t="s" s="225">
         <v>164</v>
+      </c>
+      <c r="H25" t="s" s="226">
+        <v>165</v>
+      </c>
+      <c r="I25" t="s" s="227">
+        <v>166</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="s" s="226">
-        <v>165</v>
-      </c>
-      <c r="B26" t="s" s="227">
-        <v>166</v>
-      </c>
-      <c r="C26" t="s" s="228">
-        <v>166</v>
-      </c>
-      <c r="D26" t="s" s="229">
+      <c r="A26" t="s" s="228">
         <v>167</v>
       </c>
-      <c r="E26" t="s" s="230">
-        <v>129</v>
-      </c>
-      <c r="F26" t="s" s="231">
-        <v>19</v>
-      </c>
-      <c r="G26" t="s" s="232">
+      <c r="B26" t="s" s="229">
         <v>168</v>
       </c>
-      <c r="H26" t="s" s="233">
+      <c r="C26" t="s" s="230">
+        <v>168</v>
+      </c>
+      <c r="D26" t="s" s="231">
         <v>169</v>
       </c>
-      <c r="I26" t="s" s="234">
+      <c r="E26" t="s" s="232">
+        <v>131</v>
+      </c>
+      <c r="F26" t="s" s="233">
+        <v>21</v>
+      </c>
+      <c r="G26" t="s" s="234">
         <v>170</v>
+      </c>
+      <c r="H26" t="s" s="235">
+        <v>171</v>
+      </c>
+      <c r="I26" t="s" s="236">
+        <v>172</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="s" s="235">
-        <v>171</v>
-      </c>
-      <c r="B27" t="s" s="236">
-        <v>172</v>
-      </c>
-      <c r="C27" t="s" s="237">
-        <v>172</v>
-      </c>
-      <c r="D27" t="s" s="238">
+      <c r="A27" t="s" s="237">
         <v>173</v>
       </c>
-      <c r="E27" t="s" s="239">
-        <v>41</v>
-      </c>
-      <c r="F27" t="s" s="240">
-        <v>104</v>
-      </c>
-      <c r="G27" t="s" s="241">
+      <c r="B27" t="s" s="238">
         <v>174</v>
       </c>
-      <c r="H27" t="s" s="242">
+      <c r="C27" t="s" s="239">
+        <v>174</v>
+      </c>
+      <c r="D27" t="s" s="240">
         <v>175</v>
       </c>
-      <c r="I27" t="s" s="243">
+      <c r="E27" t="s" s="241">
+        <v>43</v>
+      </c>
+      <c r="F27" t="s" s="242">
+        <v>106</v>
+      </c>
+      <c r="G27" t="s" s="243">
         <v>176</v>
+      </c>
+      <c r="H27" t="s" s="244">
+        <v>177</v>
+      </c>
+      <c r="I27" t="s" s="245">
+        <v>178</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="s" s="244">
-        <v>177</v>
-      </c>
-      <c r="B28" t="s" s="245">
-        <v>178</v>
-      </c>
-      <c r="C28" t="s" s="246">
-        <v>178</v>
-      </c>
-      <c r="D28" t="s" s="247">
+      <c r="A28" t="s" s="246">
         <v>179</v>
       </c>
-      <c r="E28" t="s" s="248">
+      <c r="B28" t="s" s="247">
         <v>180</v>
       </c>
-      <c r="F28" t="s" s="249">
-        <v>12</v>
-      </c>
-      <c r="G28" t="s" s="250">
+      <c r="C28" t="s" s="248">
+        <v>180</v>
+      </c>
+      <c r="D28" t="s" s="249">
         <v>181</v>
       </c>
-      <c r="H28" t="s" s="251">
+      <c r="E28" t="s" s="250">
         <v>182</v>
       </c>
-      <c r="I28" t="s" s="252">
+      <c r="F28" t="s" s="251">
+        <v>14</v>
+      </c>
+      <c r="G28" t="s" s="252">
         <v>183</v>
+      </c>
+      <c r="H28" t="s" s="253">
+        <v>184</v>
+      </c>
+      <c r="I28" t="s" s="254">
+        <v>185</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="s" s="253">
-        <v>184</v>
-      </c>
-      <c r="B29" t="s" s="254">
-        <v>185</v>
-      </c>
-      <c r="C29" t="s" s="255">
-        <v>185</v>
-      </c>
-      <c r="D29" t="s" s="256">
+      <c r="A29" t="s" s="255">
         <v>186</v>
       </c>
-      <c r="E29" t="s" s="257">
-        <v>20</v>
-      </c>
-      <c r="F29" t="s" s="258">
-        <v>19</v>
-      </c>
-      <c r="G29" t="s" s="259">
+      <c r="B29" t="s" s="256">
         <v>187</v>
       </c>
-      <c r="H29" t="s" s="260">
+      <c r="C29" t="s" s="257">
+        <v>187</v>
+      </c>
+      <c r="D29" t="s" s="258">
         <v>188</v>
       </c>
-      <c r="I29" t="s" s="261">
+      <c r="E29" t="s" s="259">
+        <v>22</v>
+      </c>
+      <c r="F29" t="s" s="260">
+        <v>21</v>
+      </c>
+      <c r="G29" t="s" s="261">
         <v>189</v>
+      </c>
+      <c r="H29" t="s" s="262">
+        <v>190</v>
+      </c>
+      <c r="I29" t="s" s="263">
+        <v>191</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="s" s="262">
-        <v>190</v>
-      </c>
-      <c r="B30" t="s" s="263">
-        <v>191</v>
-      </c>
-      <c r="C30" t="s" s="264">
-        <v>191</v>
-      </c>
-      <c r="D30" t="s" s="265">
+      <c r="A30" t="s" s="264">
         <v>192</v>
       </c>
-      <c r="E30" t="s" s="266">
-        <v>129</v>
-      </c>
-      <c r="F30" t="s" s="267">
-        <v>20</v>
-      </c>
-      <c r="G30" t="s" s="268">
+      <c r="B30" t="s" s="265">
         <v>193</v>
       </c>
-      <c r="H30" t="s" s="269">
+      <c r="C30" t="s" s="266">
+        <v>193</v>
+      </c>
+      <c r="D30" t="s" s="267">
         <v>194</v>
       </c>
-      <c r="I30" t="s" s="270">
+      <c r="E30" t="s" s="268">
+        <v>131</v>
+      </c>
+      <c r="F30" t="s" s="269">
+        <v>22</v>
+      </c>
+      <c r="G30" t="s" s="270">
         <v>195</v>
+      </c>
+      <c r="H30" t="s" s="271">
+        <v>196</v>
+      </c>
+      <c r="I30" t="s" s="272">
+        <v>197</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="s" s="271">
-        <v>196</v>
-      </c>
-      <c r="B31" t="s" s="272">
-        <v>197</v>
-      </c>
-      <c r="C31" t="s" s="273">
-        <v>197</v>
-      </c>
-      <c r="D31" t="s" s="274">
+      <c r="A31" t="s" s="273">
         <v>198</v>
       </c>
-      <c r="E31" t="s" s="275">
-        <v>129</v>
-      </c>
-      <c r="F31" t="s" s="276">
-        <v>12</v>
-      </c>
-      <c r="G31" t="s" s="277">
+      <c r="B31" t="s" s="274">
         <v>199</v>
       </c>
-      <c r="H31" t="s" s="278">
+      <c r="C31" t="s" s="275">
+        <v>199</v>
+      </c>
+      <c r="D31" t="s" s="276">
         <v>200</v>
       </c>
-      <c r="I31" t="s" s="279">
+      <c r="E31" t="s" s="277">
+        <v>131</v>
+      </c>
+      <c r="F31" t="s" s="278">
+        <v>14</v>
+      </c>
+      <c r="G31" t="s" s="279">
         <v>201</v>
+      </c>
+      <c r="H31" t="s" s="280">
+        <v>202</v>
+      </c>
+      <c r="I31" t="s" s="281">
+        <v>203</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="s" s="280">
-        <v>202</v>
-      </c>
-      <c r="B32" t="s" s="281">
-        <v>203</v>
-      </c>
-      <c r="C32" t="s" s="282">
-        <v>203</v>
-      </c>
-      <c r="D32" t="s" s="283">
+      <c r="A32" t="s" s="282">
         <v>204</v>
       </c>
-      <c r="E32" t="s" s="284">
-        <v>129</v>
-      </c>
-      <c r="F32" t="s" s="285">
-        <v>42</v>
-      </c>
-      <c r="G32" t="s" s="286">
+      <c r="B32" t="s" s="283">
         <v>205</v>
       </c>
-      <c r="H32" t="s" s="287">
+      <c r="C32" t="s" s="284">
+        <v>205</v>
+      </c>
+      <c r="D32" t="s" s="285">
         <v>206</v>
       </c>
-      <c r="I32" t="s" s="288">
+      <c r="E32" t="s" s="286">
+        <v>131</v>
+      </c>
+      <c r="F32" t="s" s="287">
+        <v>44</v>
+      </c>
+      <c r="G32" t="s" s="288">
         <v>207</v>
+      </c>
+      <c r="H32" t="s" s="289">
+        <v>208</v>
+      </c>
+      <c r="I32" t="s" s="290">
+        <v>209</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="s" s="289">
-        <v>208</v>
-      </c>
-      <c r="B33" t="s" s="290">
-        <v>209</v>
-      </c>
-      <c r="C33" t="s" s="291">
-        <v>209</v>
-      </c>
-      <c r="D33" t="s" s="292">
+      <c r="A33" t="s" s="291">
         <v>210</v>
       </c>
-      <c r="E33" t="s" s="293">
-        <v>20</v>
-      </c>
-      <c r="F33" t="s" s="294">
-        <v>104</v>
-      </c>
-      <c r="G33" t="s" s="295">
+      <c r="B33" t="s" s="292">
         <v>211</v>
       </c>
-      <c r="H33" t="s" s="296">
+      <c r="C33" t="s" s="293">
+        <v>211</v>
+      </c>
+      <c r="D33" t="s" s="294">
         <v>212</v>
       </c>
-      <c r="I33" t="s" s="297">
+      <c r="E33" t="s" s="295">
+        <v>22</v>
+      </c>
+      <c r="F33" t="s" s="296">
+        <v>106</v>
+      </c>
+      <c r="G33" t="s" s="297">
         <v>213</v>
+      </c>
+      <c r="H33" t="s" s="298">
+        <v>214</v>
+      </c>
+      <c r="I33" t="s" s="299">
+        <v>215</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="s" s="298">
-        <v>214</v>
-      </c>
-      <c r="B34" t="s" s="299">
-        <v>215</v>
-      </c>
-      <c r="C34" t="s" s="300">
-        <v>215</v>
-      </c>
-      <c r="D34" t="s" s="301">
+      <c r="A34" t="s" s="300">
         <v>216</v>
       </c>
-      <c r="E34" t="s" s="302">
-        <v>12</v>
-      </c>
-      <c r="F34" t="s" s="303">
-        <v>42</v>
-      </c>
-      <c r="G34" t="s" s="304">
+      <c r="B34" t="s" s="301">
         <v>217</v>
       </c>
-      <c r="H34" t="s" s="305">
+      <c r="C34" t="s" s="302">
+        <v>217</v>
+      </c>
+      <c r="D34" t="s" s="303">
         <v>218</v>
       </c>
-      <c r="I34" t="s" s="306">
+      <c r="E34" t="s" s="304">
+        <v>14</v>
+      </c>
+      <c r="F34" t="s" s="305">
+        <v>44</v>
+      </c>
+      <c r="G34" t="s" s="306">
         <v>219</v>
+      </c>
+      <c r="H34" t="s" s="307">
+        <v>220</v>
+      </c>
+      <c r="I34" t="s" s="308">
+        <v>221</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="s" s="307">
-        <v>220</v>
-      </c>
-      <c r="B35" t="s" s="308">
-        <v>221</v>
-      </c>
-      <c r="C35" t="s" s="309">
-        <v>221</v>
-      </c>
-      <c r="D35" t="s" s="310">
+      <c r="A35" t="s" s="309">
         <v>222</v>
       </c>
-      <c r="E35" t="s" s="311">
-        <v>129</v>
-      </c>
-      <c r="F35" t="s" s="312">
-        <v>12</v>
-      </c>
-      <c r="G35" t="s" s="313">
+      <c r="B35" t="s" s="310">
         <v>223</v>
       </c>
-      <c r="H35" t="s" s="314">
+      <c r="C35" t="s" s="311">
+        <v>223</v>
+      </c>
+      <c r="D35" t="s" s="312">
         <v>224</v>
       </c>
-      <c r="I35" t="s" s="315">
+      <c r="E35" t="s" s="313">
+        <v>131</v>
+      </c>
+      <c r="F35" t="s" s="314">
+        <v>14</v>
+      </c>
+      <c r="G35" t="s" s="315">
         <v>225</v>
+      </c>
+      <c r="H35" t="s" s="316">
+        <v>226</v>
+      </c>
+      <c r="I35" t="s" s="317">
+        <v>227</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="s" s="316">
-        <v>226</v>
-      </c>
-      <c r="B36" t="s" s="317">
-        <v>227</v>
-      </c>
-      <c r="C36" t="s" s="318">
-        <v>227</v>
-      </c>
-      <c r="D36" t="s" s="319">
+      <c r="A36" t="s" s="318">
         <v>228</v>
       </c>
-      <c r="E36" t="s" s="320">
-        <v>67</v>
-      </c>
-      <c r="F36" t="s" s="321">
-        <v>19</v>
-      </c>
-      <c r="G36" t="s" s="322">
+      <c r="B36" t="s" s="319">
         <v>229</v>
       </c>
-      <c r="H36" t="s" s="323">
+      <c r="C36" t="s" s="320">
+        <v>229</v>
+      </c>
+      <c r="D36" t="s" s="321">
         <v>230</v>
       </c>
-      <c r="I36" t="s" s="324">
+      <c r="E36" t="s" s="322">
+        <v>69</v>
+      </c>
+      <c r="F36" t="s" s="323">
+        <v>21</v>
+      </c>
+      <c r="G36" t="s" s="324">
         <v>231</v>
+      </c>
+      <c r="H36" t="s" s="325">
+        <v>232</v>
+      </c>
+      <c r="I36" t="s" s="326">
+        <v>233</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="s" s="325">
-        <v>232</v>
-      </c>
-      <c r="B37" t="s" s="326">
-        <v>233</v>
-      </c>
-      <c r="C37" t="s" s="327">
-        <v>233</v>
-      </c>
-      <c r="D37" t="s" s="328">
+      <c r="A37" t="s" s="327">
         <v>234</v>
       </c>
-      <c r="E37" t="s" s="329">
-        <v>129</v>
-      </c>
-      <c r="F37" t="s" s="330">
-        <v>19</v>
-      </c>
-      <c r="G37" t="s" s="331">
+      <c r="B37" t="s" s="328">
         <v>235</v>
       </c>
-      <c r="H37" t="s" s="332">
+      <c r="C37" t="s" s="329">
+        <v>235</v>
+      </c>
+      <c r="D37" t="s" s="330">
         <v>236</v>
       </c>
-      <c r="I37" t="s" s="333">
+      <c r="E37" t="s" s="331">
+        <v>131</v>
+      </c>
+      <c r="F37" t="s" s="332">
+        <v>21</v>
+      </c>
+      <c r="G37" t="s" s="333">
         <v>237</v>
+      </c>
+      <c r="H37" t="s" s="334">
+        <v>238</v>
+      </c>
+      <c r="I37" t="s" s="335">
+        <v>239</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="s" s="334">
-        <v>238</v>
-      </c>
-      <c r="B38" t="s" s="335">
-        <v>239</v>
-      </c>
-      <c r="C38" t="s" s="336">
-        <v>239</v>
-      </c>
-      <c r="D38" t="s" s="337">
+      <c r="A38" t="s" s="336">
         <v>240</v>
       </c>
-      <c r="E38" t="s" s="338">
-        <v>27</v>
-      </c>
-      <c r="F38" t="s" s="339">
-        <v>12</v>
-      </c>
-      <c r="G38" t="s" s="340">
+      <c r="B38" t="s" s="337">
         <v>241</v>
       </c>
-      <c r="H38" t="s" s="341">
+      <c r="C38" t="s" s="338">
+        <v>241</v>
+      </c>
+      <c r="D38" t="s" s="339">
         <v>242</v>
       </c>
-      <c r="I38" t="s" s="342">
+      <c r="E38" t="s" s="340">
+        <v>29</v>
+      </c>
+      <c r="F38" t="s" s="341">
+        <v>14</v>
+      </c>
+      <c r="G38" t="s" s="342">
         <v>243</v>
+      </c>
+      <c r="H38" t="s" s="343">
+        <v>244</v>
+      </c>
+      <c r="I38" t="s" s="344">
+        <v>245</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="s" s="343">
-        <v>244</v>
-      </c>
-      <c r="B39" t="s" s="344">
-        <v>245</v>
-      </c>
-      <c r="C39" t="s" s="345">
-        <v>245</v>
-      </c>
-      <c r="D39" t="s" s="346">
+      <c r="A39" t="s" s="345">
         <v>246</v>
       </c>
-      <c r="E39" t="s" s="347">
-        <v>129</v>
-      </c>
-      <c r="F39" t="s" s="348">
-        <v>12</v>
-      </c>
-      <c r="G39" t="s" s="349">
+      <c r="B39" t="s" s="346">
         <v>247</v>
       </c>
-      <c r="H39" t="s" s="350">
+      <c r="C39" t="s" s="347">
+        <v>247</v>
+      </c>
+      <c r="D39" t="s" s="348">
         <v>248</v>
       </c>
-      <c r="I39" t="s" s="351">
+      <c r="E39" t="s" s="349">
+        <v>131</v>
+      </c>
+      <c r="F39" t="s" s="350">
+        <v>14</v>
+      </c>
+      <c r="G39" t="s" s="351">
         <v>249</v>
+      </c>
+      <c r="H39" t="s" s="352">
+        <v>250</v>
+      </c>
+      <c r="I39" t="s" s="353">
+        <v>251</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="s" s="352">
-        <v>250</v>
-      </c>
-      <c r="B40" t="s" s="353">
-        <v>251</v>
-      </c>
-      <c r="C40" t="s" s="354">
-        <v>251</v>
-      </c>
-      <c r="D40" t="s" s="355">
+      <c r="A40" t="s" s="354">
         <v>252</v>
       </c>
-      <c r="E40" t="s" s="356">
-        <v>104</v>
-      </c>
-      <c r="F40" t="s" s="357">
-        <v>20</v>
-      </c>
-      <c r="G40" t="s" s="358">
+      <c r="B40" t="s" s="355">
         <v>253</v>
       </c>
-      <c r="H40" t="s" s="359">
+      <c r="C40" t="s" s="356">
+        <v>253</v>
+      </c>
+      <c r="D40" t="s" s="357">
         <v>254</v>
       </c>
-      <c r="I40" t="s" s="360">
+      <c r="E40" t="s" s="358">
+        <v>106</v>
+      </c>
+      <c r="F40" t="s" s="359">
+        <v>22</v>
+      </c>
+      <c r="G40" t="s" s="360">
         <v>255</v>
+      </c>
+      <c r="H40" t="s" s="361">
+        <v>256</v>
+      </c>
+      <c r="I40" t="s" s="362">
+        <v>257</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="s" s="361">
-        <v>256</v>
-      </c>
-      <c r="B41" t="s" s="362">
-        <v>257</v>
-      </c>
-      <c r="C41" t="s" s="363">
-        <v>257</v>
-      </c>
-      <c r="D41" t="s" s="364">
+      <c r="A41" t="s" s="363">
         <v>258</v>
       </c>
-      <c r="E41" t="s" s="365">
-        <v>12</v>
-      </c>
-      <c r="F41" t="s" s="366">
-        <v>19</v>
-      </c>
-      <c r="G41" t="s" s="367">
+      <c r="B41" t="s" s="364">
         <v>259</v>
       </c>
-      <c r="H41" t="s" s="368">
+      <c r="C41" t="s" s="365">
+        <v>259</v>
+      </c>
+      <c r="D41" t="s" s="366">
         <v>260</v>
       </c>
-      <c r="I41" t="s" s="369">
+      <c r="E41" t="s" s="367">
+        <v>14</v>
+      </c>
+      <c r="F41" t="s" s="368">
+        <v>21</v>
+      </c>
+      <c r="G41" t="s" s="369">
         <v>261</v>
+      </c>
+      <c r="H41" t="s" s="370">
+        <v>262</v>
+      </c>
+      <c r="I41" t="s" s="371">
+        <v>263</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="s" s="370">
-        <v>262</v>
-      </c>
-      <c r="B42" t="s" s="371">
-        <v>263</v>
-      </c>
-      <c r="C42" t="s" s="372">
-        <v>263</v>
-      </c>
-      <c r="D42" t="s" s="373">
+      <c r="A42" t="s" s="372">
         <v>264</v>
       </c>
-      <c r="E42" t="s" s="374">
+      <c r="B42" t="s" s="373">
         <v>265</v>
       </c>
-      <c r="F42" t="s" s="375">
-        <v>12</v>
-      </c>
-      <c r="G42" t="s" s="376">
+      <c r="C42" t="s" s="374">
+        <v>265</v>
+      </c>
+      <c r="D42" t="s" s="375">
         <v>266</v>
       </c>
-      <c r="H42" t="s" s="377">
+      <c r="E42" t="s" s="376">
         <v>267</v>
       </c>
-      <c r="I42" t="s" s="378">
+      <c r="F42" t="s" s="377">
+        <v>14</v>
+      </c>
+      <c r="G42" t="s" s="378">
         <v>268</v>
+      </c>
+      <c r="H42" t="s" s="379">
+        <v>269</v>
+      </c>
+      <c r="I42" t="s" s="380">
+        <v>270</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="s" s="379">
-        <v>269</v>
-      </c>
-      <c r="B43" t="s" s="380">
-        <v>270</v>
-      </c>
-      <c r="C43" t="s" s="381">
-        <v>270</v>
-      </c>
-      <c r="D43" t="s" s="382">
+      <c r="A43" t="s" s="381">
         <v>271</v>
       </c>
-      <c r="E43" t="s" s="383">
-        <v>129</v>
-      </c>
-      <c r="F43" t="s" s="384">
-        <v>19</v>
-      </c>
-      <c r="G43" t="s" s="385">
+      <c r="B43" t="s" s="382">
         <v>272</v>
       </c>
-      <c r="H43" t="s" s="386">
+      <c r="C43" t="s" s="383">
+        <v>272</v>
+      </c>
+      <c r="D43" t="s" s="384">
         <v>273</v>
       </c>
-      <c r="I43" t="s" s="387">
+      <c r="E43" t="s" s="385">
+        <v>131</v>
+      </c>
+      <c r="F43" t="s" s="386">
+        <v>21</v>
+      </c>
+      <c r="G43" t="s" s="387">
         <v>274</v>
+      </c>
+      <c r="H43" t="s" s="388">
+        <v>275</v>
+      </c>
+      <c r="I43" t="s" s="389">
+        <v>276</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="s" s="388">
-        <v>275</v>
-      </c>
-      <c r="B44" t="s" s="389">
-        <v>276</v>
-      </c>
-      <c r="C44" t="s" s="390">
-        <v>276</v>
-      </c>
-      <c r="D44" t="s" s="391">
+      <c r="A44" t="s" s="390">
         <v>277</v>
       </c>
-      <c r="E44" t="s" s="392">
-        <v>67</v>
-      </c>
-      <c r="F44" t="s" s="393">
-        <v>12</v>
-      </c>
-      <c r="G44" t="s" s="394">
+      <c r="B44" t="s" s="391">
         <v>278</v>
       </c>
-      <c r="H44" t="s" s="395">
+      <c r="C44" t="s" s="392">
+        <v>278</v>
+      </c>
+      <c r="D44" t="s" s="393">
         <v>279</v>
       </c>
-      <c r="I44" t="s" s="396">
+      <c r="E44" t="s" s="394">
+        <v>69</v>
+      </c>
+      <c r="F44" t="s" s="395">
+        <v>14</v>
+      </c>
+      <c r="G44" t="s" s="396">
         <v>280</v>
+      </c>
+      <c r="H44" t="s" s="397">
+        <v>281</v>
+      </c>
+      <c r="I44" t="s" s="398">
+        <v>282</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="s" s="397">
-        <v>281</v>
-      </c>
-      <c r="B45" t="s" s="398">
-        <v>282</v>
-      </c>
-      <c r="C45" t="s" s="399">
-        <v>282</v>
-      </c>
-      <c r="D45" t="s" s="400">
+      <c r="A45" t="s" s="399">
         <v>283</v>
       </c>
-      <c r="E45" t="s" s="401">
-        <v>67</v>
-      </c>
-      <c r="F45" t="s" s="402">
-        <v>20</v>
-      </c>
-      <c r="G45" t="s" s="403">
+      <c r="B45" t="s" s="400">
         <v>284</v>
       </c>
-      <c r="H45" t="s" s="404">
+      <c r="C45" t="s" s="401">
+        <v>284</v>
+      </c>
+      <c r="D45" t="s" s="402">
         <v>285</v>
       </c>
-      <c r="I45" t="s" s="405">
+      <c r="E45" t="s" s="403">
+        <v>69</v>
+      </c>
+      <c r="F45" t="s" s="404">
+        <v>22</v>
+      </c>
+      <c r="G45" t="s" s="405">
         <v>286</v>
+      </c>
+      <c r="H45" t="s" s="406">
+        <v>287</v>
+      </c>
+      <c r="I45" t="s" s="407">
+        <v>288</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="s" s="406">
-        <v>287</v>
-      </c>
-      <c r="B46" t="s" s="407">
-        <v>288</v>
-      </c>
-      <c r="C46" t="s" s="408">
-        <v>288</v>
-      </c>
-      <c r="D46" t="s" s="409">
+      <c r="A46" t="s" s="408">
         <v>289</v>
       </c>
-      <c r="E46" t="s" s="410">
-        <v>129</v>
-      </c>
-      <c r="F46" t="s" s="411">
-        <v>19</v>
-      </c>
-      <c r="G46" t="s" s="412">
+      <c r="B46" t="s" s="409">
         <v>290</v>
       </c>
-      <c r="H46" t="s" s="413">
+      <c r="C46" t="s" s="410">
+        <v>290</v>
+      </c>
+      <c r="D46" t="s" s="411">
         <v>291</v>
       </c>
-      <c r="I46" t="s" s="414">
+      <c r="E46" t="s" s="412">
+        <v>131</v>
+      </c>
+      <c r="F46" t="s" s="413">
+        <v>21</v>
+      </c>
+      <c r="G46" t="s" s="414">
         <v>292</v>
+      </c>
+      <c r="H46" t="s" s="415">
+        <v>293</v>
+      </c>
+      <c r="I46" t="s" s="416">
+        <v>294</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="s" s="415">
-        <v>293</v>
-      </c>
-      <c r="B47" t="s" s="416">
-        <v>294</v>
-      </c>
-      <c r="C47" t="s" s="417">
-        <v>294</v>
-      </c>
-      <c r="D47" t="s" s="418">
+      <c r="A47" t="s" s="417">
         <v>295</v>
       </c>
-      <c r="E47" t="s" s="419">
-        <v>12</v>
-      </c>
-      <c r="F47" t="s" s="420">
-        <v>20</v>
-      </c>
-      <c r="G47" t="s" s="421">
+      <c r="B47" t="s" s="418">
         <v>296</v>
       </c>
-      <c r="H47" t="s" s="422">
+      <c r="C47" t="s" s="419">
+        <v>296</v>
+      </c>
+      <c r="D47" t="s" s="420">
         <v>297</v>
       </c>
-      <c r="I47" t="s" s="423">
+      <c r="E47" t="s" s="421">
+        <v>14</v>
+      </c>
+      <c r="F47" t="s" s="422">
+        <v>22</v>
+      </c>
+      <c r="G47" t="s" s="423">
         <v>298</v>
+      </c>
+      <c r="H47" t="s" s="424">
+        <v>299</v>
+      </c>
+      <c r="I47" t="s" s="425">
+        <v>300</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="s" s="424">
-        <v>299</v>
-      </c>
-      <c r="B48" t="s" s="425">
-        <v>300</v>
-      </c>
-      <c r="C48" t="s" s="426">
-        <v>300</v>
-      </c>
-      <c r="D48" t="s" s="427">
+      <c r="A48" t="s" s="426">
         <v>301</v>
       </c>
-      <c r="E48" t="s" s="428">
-        <v>12</v>
-      </c>
-      <c r="F48" t="s" s="429">
-        <v>19</v>
-      </c>
-      <c r="G48" t="s" s="430">
+      <c r="B48" t="s" s="427">
         <v>302</v>
       </c>
-      <c r="H48" t="s" s="431">
+      <c r="C48" t="s" s="428">
+        <v>302</v>
+      </c>
+      <c r="D48" t="s" s="429">
         <v>303</v>
       </c>
-      <c r="I48" t="s" s="432">
+      <c r="E48" t="s" s="430">
+        <v>14</v>
+      </c>
+      <c r="F48" t="s" s="431">
+        <v>21</v>
+      </c>
+      <c r="G48" t="s" s="432">
         <v>304</v>
+      </c>
+      <c r="H48" t="s" s="433">
+        <v>305</v>
+      </c>
+      <c r="I48" t="s" s="434">
+        <v>306</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="s" s="433">
-        <v>305</v>
-      </c>
-      <c r="B49" t="s" s="434">
-        <v>306</v>
-      </c>
-      <c r="C49" t="s" s="435">
-        <v>306</v>
-      </c>
-      <c r="D49" t="s" s="436">
+      <c r="A49" t="s" s="435">
         <v>307</v>
       </c>
-      <c r="E49" t="s" s="437">
-        <v>104</v>
-      </c>
-      <c r="F49" t="s" s="438">
-        <v>12</v>
-      </c>
-      <c r="G49" t="s" s="439">
+      <c r="B49" t="s" s="436">
         <v>308</v>
       </c>
-      <c r="H49" t="s" s="440">
+      <c r="C49" t="s" s="437">
+        <v>308</v>
+      </c>
+      <c r="D49" t="s" s="438">
         <v>309</v>
       </c>
-      <c r="I49" t="s" s="441">
+      <c r="E49" t="s" s="439">
+        <v>106</v>
+      </c>
+      <c r="F49" t="s" s="440">
+        <v>14</v>
+      </c>
+      <c r="G49" t="s" s="441">
         <v>310</v>
+      </c>
+      <c r="H49" t="s" s="442">
+        <v>311</v>
+      </c>
+      <c r="I49" t="s" s="443">
+        <v>312</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="s" s="442">
-        <v>311</v>
-      </c>
-      <c r="B50" t="s" s="443">
-        <v>312</v>
-      </c>
-      <c r="C50" t="s" s="444">
-        <v>312</v>
-      </c>
-      <c r="D50" t="s" s="445">
+      <c r="A50" t="s" s="444">
         <v>313</v>
       </c>
-      <c r="E50" t="s" s="446">
-        <v>129</v>
-      </c>
-      <c r="F50" t="s" s="447">
-        <v>19</v>
-      </c>
-      <c r="G50" t="s" s="448">
+      <c r="B50" t="s" s="445">
         <v>314</v>
       </c>
-      <c r="H50" t="s" s="449">
+      <c r="C50" t="s" s="446">
+        <v>314</v>
+      </c>
+      <c r="D50" t="s" s="447">
         <v>315</v>
       </c>
-      <c r="I50" t="s" s="450">
+      <c r="E50" t="s" s="448">
+        <v>131</v>
+      </c>
+      <c r="F50" t="s" s="449">
+        <v>21</v>
+      </c>
+      <c r="G50" t="s" s="450">
         <v>316</v>
+      </c>
+      <c r="H50" t="s" s="451">
+        <v>317</v>
+      </c>
+      <c r="I50" t="s" s="452">
+        <v>318</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="s" s="451">
-        <v>317</v>
-      </c>
-      <c r="B51" t="s" s="452">
-        <v>318</v>
-      </c>
-      <c r="C51" t="s" s="453">
-        <v>318</v>
-      </c>
-      <c r="D51" t="s" s="454">
+      <c r="A51" t="s" s="453">
         <v>319</v>
       </c>
-      <c r="E51" t="s" s="455">
-        <v>20</v>
-      </c>
-      <c r="F51" t="s" s="456">
-        <v>19</v>
-      </c>
-      <c r="G51" t="s" s="457">
+      <c r="B51" t="s" s="454">
         <v>320</v>
       </c>
-      <c r="H51" t="s" s="458">
+      <c r="C51" t="s" s="455">
+        <v>320</v>
+      </c>
+      <c r="D51" t="s" s="456">
         <v>321</v>
       </c>
-      <c r="I51" t="s" s="459">
+      <c r="E51" t="s" s="457">
+        <v>22</v>
+      </c>
+      <c r="F51" t="s" s="458">
+        <v>21</v>
+      </c>
+      <c r="G51" t="s" s="459">
         <v>322</v>
+      </c>
+      <c r="H51" t="s" s="460">
+        <v>323</v>
+      </c>
+      <c r="I51" t="s" s="461">
+        <v>324</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="s" s="460">
-        <v>323</v>
-      </c>
-      <c r="B52" t="s" s="461">
-        <v>324</v>
-      </c>
-      <c r="C52" t="s" s="462">
-        <v>324</v>
-      </c>
-      <c r="D52" t="s" s="463">
+      <c r="A52" t="s" s="462">
         <v>325</v>
       </c>
-      <c r="E52" t="s" s="464">
-        <v>129</v>
-      </c>
-      <c r="F52" t="s" s="465">
-        <v>19</v>
-      </c>
-      <c r="G52" t="s" s="466">
+      <c r="B52" t="s" s="463">
         <v>326</v>
       </c>
-      <c r="H52" t="s" s="467">
+      <c r="C52" t="s" s="464">
+        <v>326</v>
+      </c>
+      <c r="D52" t="s" s="465">
         <v>327</v>
       </c>
-      <c r="I52" t="s" s="468">
+      <c r="E52" t="s" s="466">
+        <v>131</v>
+      </c>
+      <c r="F52" t="s" s="467">
+        <v>21</v>
+      </c>
+      <c r="G52" t="s" s="468">
         <v>328</v>
+      </c>
+      <c r="H52" t="s" s="469">
+        <v>329</v>
+      </c>
+      <c r="I52" t="s" s="470">
+        <v>330</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="s" s="469">
-        <v>329</v>
-      </c>
-      <c r="B53" t="s" s="470">
-        <v>330</v>
-      </c>
-      <c r="C53" t="s" s="471">
-        <v>330</v>
-      </c>
-      <c r="D53" t="s" s="472">
+      <c r="A53" t="s" s="471">
         <v>331</v>
       </c>
-      <c r="E53" t="s" s="473">
-        <v>129</v>
-      </c>
-      <c r="F53" t="s" s="474">
-        <v>42</v>
-      </c>
-      <c r="G53" t="s" s="475">
+      <c r="B53" t="s" s="472">
         <v>332</v>
       </c>
-      <c r="H53" t="s" s="476">
+      <c r="C53" t="s" s="473">
+        <v>332</v>
+      </c>
+      <c r="D53" t="s" s="474">
         <v>333</v>
       </c>
-      <c r="I53" t="s" s="477">
+      <c r="E53" t="s" s="475">
+        <v>131</v>
+      </c>
+      <c r="F53" t="s" s="476">
+        <v>44</v>
+      </c>
+      <c r="G53" t="s" s="477">
         <v>334</v>
+      </c>
+      <c r="H53" t="s" s="478">
+        <v>335</v>
+      </c>
+      <c r="I53" t="s" s="479">
+        <v>336</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="s" s="478">
-        <v>335</v>
-      </c>
-      <c r="B54" t="s" s="479">
-        <v>336</v>
-      </c>
-      <c r="C54" t="s" s="480">
-        <v>336</v>
-      </c>
-      <c r="D54" t="s" s="481">
+      <c r="A54" t="s" s="480">
         <v>337</v>
       </c>
-      <c r="E54" t="s" s="482">
-        <v>19</v>
-      </c>
-      <c r="F54" t="s" s="483">
-        <v>19</v>
-      </c>
-      <c r="G54" t="s" s="484">
+      <c r="B54" t="s" s="481">
         <v>338</v>
       </c>
-      <c r="H54" t="s" s="485">
+      <c r="C54" t="s" s="482">
+        <v>338</v>
+      </c>
+      <c r="D54" t="s" s="483">
         <v>339</v>
       </c>
-      <c r="I54" t="s" s="486">
+      <c r="E54" t="s" s="484">
+        <v>21</v>
+      </c>
+      <c r="F54" t="s" s="485">
+        <v>21</v>
+      </c>
+      <c r="G54" t="s" s="486">
         <v>340</v>
+      </c>
+      <c r="H54" t="s" s="487">
+        <v>341</v>
+      </c>
+      <c r="I54" t="s" s="488">
+        <v>342</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="s" s="487">
-        <v>341</v>
-      </c>
-      <c r="B55" t="s" s="488">
-        <v>342</v>
-      </c>
-      <c r="C55" t="s" s="489">
-        <v>342</v>
-      </c>
-      <c r="D55" t="s" s="490">
+      <c r="A55" t="s" s="489">
         <v>343</v>
       </c>
-      <c r="E55" t="s" s="491">
-        <v>20</v>
-      </c>
-      <c r="F55" t="s" s="492">
-        <v>19</v>
-      </c>
-      <c r="G55" t="s" s="493">
+      <c r="B55" t="s" s="490">
         <v>344</v>
       </c>
-      <c r="H55" t="s" s="494">
+      <c r="C55" t="s" s="491">
+        <v>344</v>
+      </c>
+      <c r="D55" t="s" s="492">
         <v>345</v>
       </c>
-      <c r="I55" t="s" s="495">
+      <c r="E55" t="s" s="493">
+        <v>22</v>
+      </c>
+      <c r="F55" t="s" s="494">
+        <v>21</v>
+      </c>
+      <c r="G55" t="s" s="495">
         <v>346</v>
+      </c>
+      <c r="H55" t="s" s="496">
+        <v>347</v>
+      </c>
+      <c r="I55" t="s" s="497">
+        <v>348</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="s" s="496">
-        <v>347</v>
-      </c>
-      <c r="B56" t="s" s="497">
-        <v>348</v>
-      </c>
-      <c r="C56" t="s" s="498">
-        <v>348</v>
-      </c>
-      <c r="D56" t="s" s="499">
+      <c r="A56" t="s" s="498">
         <v>349</v>
       </c>
-      <c r="E56" t="s" s="500">
-        <v>129</v>
-      </c>
-      <c r="F56" t="s" s="501">
-        <v>19</v>
-      </c>
-      <c r="G56" t="s" s="502">
+      <c r="B56" t="s" s="499">
         <v>350</v>
       </c>
-      <c r="H56" t="s" s="503">
+      <c r="C56" t="s" s="500">
+        <v>350</v>
+      </c>
+      <c r="D56" t="s" s="501">
         <v>351</v>
       </c>
-      <c r="I56" t="s" s="504">
+      <c r="E56" t="s" s="502">
+        <v>131</v>
+      </c>
+      <c r="F56" t="s" s="503">
+        <v>21</v>
+      </c>
+      <c r="G56" t="s" s="504">
         <v>352</v>
+      </c>
+      <c r="H56" t="s" s="505">
+        <v>353</v>
+      </c>
+      <c r="I56" t="s" s="506">
+        <v>354</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="s" s="505">
-        <v>353</v>
-      </c>
-      <c r="B57" t="s" s="506">
-        <v>354</v>
-      </c>
-      <c r="C57" t="s" s="507">
-        <v>354</v>
-      </c>
-      <c r="D57" t="s" s="508">
+      <c r="A57" t="s" s="507">
         <v>355</v>
       </c>
-      <c r="E57" t="s" s="509">
-        <v>129</v>
-      </c>
-      <c r="F57" t="s" s="510">
-        <v>42</v>
-      </c>
-      <c r="G57" t="s" s="511">
+      <c r="B57" t="s" s="508">
         <v>356</v>
       </c>
-      <c r="H57" t="s" s="512">
+      <c r="C57" t="s" s="509">
+        <v>356</v>
+      </c>
+      <c r="D57" t="s" s="510">
         <v>357</v>
       </c>
-      <c r="I57" t="s" s="513">
+      <c r="E57" t="s" s="511">
+        <v>131</v>
+      </c>
+      <c r="F57" t="s" s="512">
+        <v>44</v>
+      </c>
+      <c r="G57" t="s" s="513">
         <v>358</v>
+      </c>
+      <c r="H57" t="s" s="514">
+        <v>359</v>
+      </c>
+      <c r="I57" t="s" s="515">
+        <v>360</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="s" s="514">
-        <v>359</v>
-      </c>
-      <c r="B58" t="s" s="515">
-        <v>360</v>
-      </c>
-      <c r="C58" t="s" s="516">
-        <v>360</v>
-      </c>
-      <c r="D58" t="s" s="517">
+      <c r="A58" t="s" s="516">
         <v>361</v>
       </c>
-      <c r="E58" t="s" s="518">
-        <v>54</v>
-      </c>
-      <c r="F58" t="s" s="519">
-        <v>12</v>
-      </c>
-      <c r="G58" t="s" s="520">
+      <c r="B58" t="s" s="517">
         <v>362</v>
       </c>
-      <c r="H58" t="s" s="521">
+      <c r="C58" t="s" s="518">
+        <v>362</v>
+      </c>
+      <c r="D58" t="s" s="519">
         <v>363</v>
       </c>
-      <c r="I58" t="s" s="522">
+      <c r="E58" t="s" s="520">
+        <v>56</v>
+      </c>
+      <c r="F58" t="s" s="521">
+        <v>14</v>
+      </c>
+      <c r="G58" t="s" s="522">
         <v>364</v>
+      </c>
+      <c r="H58" t="s" s="523">
+        <v>365</v>
+      </c>
+      <c r="I58" t="s" s="524">
+        <v>366</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="s" s="523">
-        <v>365</v>
-      </c>
-      <c r="B59" t="s" s="524">
-        <v>366</v>
-      </c>
-      <c r="C59" t="s" s="525">
-        <v>366</v>
-      </c>
-      <c r="D59" t="s" s="526">
+      <c r="A59" t="s" s="525">
         <v>367</v>
       </c>
-      <c r="E59" t="s" s="527">
-        <v>41</v>
-      </c>
-      <c r="F59" t="s" s="528">
+      <c r="B59" t="s" s="526">
         <v>368</v>
       </c>
-      <c r="G59" t="s" s="529">
+      <c r="C59" t="s" s="527">
+        <v>368</v>
+      </c>
+      <c r="D59" t="s" s="528">
         <v>369</v>
       </c>
-      <c r="H59" t="s" s="530">
+      <c r="E59" t="s" s="529">
+        <v>43</v>
+      </c>
+      <c r="F59" t="s" s="530">
         <v>370</v>
       </c>
-      <c r="I59" t="s" s="531">
+      <c r="G59" t="s" s="531">
         <v>371</v>
+      </c>
+      <c r="H59" t="s" s="532">
+        <v>372</v>
+      </c>
+      <c r="I59" t="s" s="533">
+        <v>373</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="s" s="532">
-        <v>372</v>
-      </c>
-      <c r="B60" t="s" s="533">
-        <v>373</v>
-      </c>
-      <c r="C60" t="s" s="534">
-        <v>373</v>
-      </c>
-      <c r="D60" t="s" s="535">
+      <c r="A60" t="s" s="534">
         <v>374</v>
       </c>
-      <c r="E60" t="s" s="536">
-        <v>54</v>
-      </c>
-      <c r="F60" t="s" s="537">
-        <v>12</v>
-      </c>
-      <c r="G60" t="s" s="538">
+      <c r="B60" t="s" s="535">
         <v>375</v>
       </c>
-      <c r="H60" t="s" s="539">
+      <c r="C60" t="s" s="536">
+        <v>375</v>
+      </c>
+      <c r="D60" t="s" s="537">
+        <v>376</v>
+      </c>
+      <c r="E60" t="s" s="538">
+        <v>56</v>
+      </c>
+      <c r="F60" t="s" s="539">
         <v>14</v>
       </c>
-      <c r="I60" t="s" s="540">
-        <v>376</v>
+      <c r="G60" t="s" s="540">
+        <v>377</v>
+      </c>
+      <c r="H60" t="s" s="541">
+        <v>16</v>
+      </c>
+      <c r="I60" t="s" s="542">
+        <v>378</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="s" s="541">
-        <v>377</v>
-      </c>
-      <c r="B61" t="s" s="542">
-        <v>378</v>
-      </c>
-      <c r="C61" t="s" s="543">
-        <v>378</v>
-      </c>
-      <c r="D61" t="s" s="544">
+      <c r="A61" t="s" s="543">
         <v>379</v>
       </c>
-      <c r="E61" t="s" s="545">
-        <v>136</v>
-      </c>
-      <c r="F61" t="s" s="546">
-        <v>12</v>
-      </c>
-      <c r="G61" t="s" s="547">
+      <c r="B61" t="s" s="544">
         <v>380</v>
       </c>
-      <c r="H61" t="s" s="548">
+      <c r="C61" t="s" s="545">
+        <v>380</v>
+      </c>
+      <c r="D61" t="s" s="546">
         <v>381</v>
       </c>
-      <c r="I61" t="s" s="549">
+      <c r="E61" t="s" s="547">
+        <v>138</v>
+      </c>
+      <c r="F61" t="s" s="548">
+        <v>14</v>
+      </c>
+      <c r="G61" t="s" s="549">
         <v>382</v>
+      </c>
+      <c r="H61" t="s" s="550">
+        <v>383</v>
+      </c>
+      <c r="I61" t="s" s="551">
+        <v>384</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/ScrapeData/recipes_PCOS.xlsx
+++ b/src/test/resources/ScrapeData/recipes_PCOS.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="385">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="406">
   <si>
     <t>ReceipeID</t>
   </si>
@@ -185,6 +185,9 @@
   </si>
   <si>
     <t>33424</t>
+  </si>
+  <si>
+    <t>Jain Pav Bhaji ( Mumbai Roadside Recipes )</t>
   </si>
   <si>
     <t>Jain Pav bhaji recipe | Jain Mumbai roadside Pav bhaji | no potato, garlic and onion Pav bhaji |</t>
@@ -261,6 +264,9 @@
     <t>33419</t>
   </si>
   <si>
+    <t>Sandwich Masala ( Mumbai Roadside Recipes )</t>
+  </si>
+  <si>
     <t>sandwich masala recipe | Indian sandwich masala | street style sandwich masala |</t>
   </si>
   <si>
@@ -294,6 +300,9 @@
   </si>
   <si>
     <t>33420</t>
+  </si>
+  <si>
+    <t>Vegetable Grill Sandwich ( Mumbai Roadside Recipes )</t>
   </si>
   <si>
     <t>vegetable grilled sandwich recipe | Mumbai veg grilled sandwich |</t>
@@ -350,6 +359,9 @@
   </si>
   <si>
     <t>33423</t>
+  </si>
+  <si>
+    <t>Pav Bhaji ( Mumbai Roadside Recipes )</t>
   </si>
   <si>
     <t>pav bhaji | mumbai roadside pav bhaji | pav bhaji without pressure cooker |</t>
@@ -476,6 +488,9 @@
     <t>33447</t>
   </si>
   <si>
+    <t>Masala Khichiya Papad ( Mumbai Roadside Recipes )</t>
+  </si>
+  <si>
     <t>masala khichiya papad recipe | khichiya papad Indian street food | Mumbai special roadside snack |</t>
   </si>
   <si>
@@ -679,6 +694,9 @@
   </si>
   <si>
     <t>33440</t>
+  </si>
+  <si>
+    <t>Farali Pattice ( Mumbai Roadside Recipes )</t>
   </si>
   <si>
     <t>farali pattice | farali aloo pattice | Mumbai roadside farali pattice</t>
@@ -743,6 +761,9 @@
     <t>33441</t>
   </si>
   <si>
+    <t>Aloo Chaat ( Mumbai Roadside Recipes )</t>
+  </si>
+  <si>
     <t>aloo chaat recipe | Mumbai roadside aloo chaat | Delhi aloo chaat |</t>
   </si>
   <si>
@@ -797,6 +818,9 @@
   </si>
   <si>
     <t>33418</t>
+  </si>
+  <si>
+    <t>Masala Toast ( Mumbai Roadside Recipes )</t>
   </si>
   <si>
     <t>masala toast | Bombay masala toast | Mumbai roadside masala toast sandwich recipe |</t>
@@ -1126,6 +1150,9 @@
     <t>33379</t>
   </si>
   <si>
+    <t>Meetha Chutney ( Mumbai Roadside Recipes )</t>
+  </si>
+  <si>
     <t>meetha chutney recipe | khatta meetha chutney | sweet chutney | dates and tamarind chutney |</t>
   </si>
   <si>
@@ -1330,6 +1357,9 @@
     <t>33414</t>
   </si>
   <si>
+    <t>Green Chutney ( Mumbai Roadside Recipes)</t>
+  </si>
+  <si>
     <t>green chutney recipe | Mumbai roadside green chutney | sandwich chutney recipe for travelling | spicy green chutney |</t>
   </si>
   <si>
@@ -1362,6 +1392,9 @@
   </si>
   <si>
     <t>33416</t>
+  </si>
+  <si>
+    <t>Vegetable Sandwich ( Mumbai Roadside Recipes )</t>
   </si>
   <si>
     <t>Mumbai veg sandwich recipe | vegetable sandwich | simple veg sandwich | how to make sandwich at home |</t>
@@ -1519,6 +1552,9 @@
     <t>33401</t>
   </si>
   <si>
+    <t>Dabeli ( Mumbai Roadside Recipes )</t>
+  </si>
+  <si>
     <t>dabeli recipe | Mumbai roadside dabeli | kutchii dabeli | double roti |</t>
   </si>
   <si>
@@ -1580,6 +1616,9 @@
   </si>
   <si>
     <t>33404</t>
+  </si>
+  <si>
+    <t>Sukha Bhel ( Mumbai Roadside Recipes)</t>
   </si>
   <si>
     <t>sukha bhel recipe | dry bhel |Mumbai roadside sukha bhel</t>
@@ -1641,6 +1680,9 @@
     <t>33405</t>
   </si>
   <si>
+    <t>Sev Puri ( Mumbai Roadside Recipes )</t>
+  </si>
+  <si>
     <t>street style sev puri | Mumbai roadside sev puri | homemade sev poori chaat recipe</t>
   </si>
   <si>
@@ -1832,6 +1874,9 @@
   </si>
   <si>
     <t>33478</t>
+  </si>
+  <si>
+    <t>Soya Bhurji ( Soya Granules Recipes)</t>
   </si>
   <si>
     <t>soya bhurji recipe | soya matar bhurji | soya bhurji from soya granules |</t>
@@ -1955,6 +2000,9 @@
   </si>
   <si>
     <t>33530</t>
+  </si>
+  <si>
+    <t>Ginger- Garlic Paste ( Popular Restaurant Recipes )</t>
   </si>
   <si>
     <t>ginger garlic paste recipe | homemade ginger garlic paste | how to make ginger garlic paste | how to store ginger garlic paste |</t>
@@ -2077,6 +2125,9 @@
     <t>38987</t>
   </si>
   <si>
+    <t>Oats Upma ( Breakfast Recipes)</t>
+  </si>
+  <si>
     <t>oats upma | oats upma with vegetables |healthy Indian oats upma | quick oats upma |</t>
   </si>
   <si>
@@ -2260,6 +2311,9 @@
   </si>
   <si>
     <t>33510</t>
+  </si>
+  <si>
+    <t>Basic Spinach Gravy ( Popular Restaurant Recipes )</t>
   </si>
   <si>
     <t>basic spinach gravy recipe | Indian palak gravy | healthy spinach gravy | popular restaurant recipe</t>
@@ -3119,6 +3173,15 @@
   </si>
   <si>
     <t>https://www.tarladalal.com/sweet-and-sour-vegetable---chinese-recipes-22772r</t>
+  </si>
+  <si>
+    <t>202</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/RecipeSearch.aspx?term=PCOS%20Recipes&amp;pageindex=2</t>
+  </si>
+  <si>
+    <t>data:,</t>
   </si>
 </sst>
 </file>
@@ -3155,8 +3218,116 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="552">
+  <cellXfs count="588">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment wrapText="true"/>
     </xf>
@@ -4816,7 +4987,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K61"/>
+  <dimension ref="A1:K65"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -4952,68 +5123,68 @@
         <v>34</v>
       </c>
       <c r="C5" t="s" s="41">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D5" t="s" s="42">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E5" t="s" s="43">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F5" t="s" s="44">
         <v>22</v>
       </c>
       <c r="G5" t="s" s="45">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H5" t="s" s="46">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I5" t="s" s="47">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="48">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B6" t="s" s="49">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C6" t="s" s="50">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D6" t="s" s="51">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E6" t="s" s="52">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s" s="53">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G6" t="s" s="54">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s" s="55">
         <v>16</v>
       </c>
       <c r="I6" t="s" s="56">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="57">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B7" t="s" s="58">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C7" t="s" s="59">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D7" t="s" s="60">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E7" t="s" s="61">
         <v>22</v>
@@ -5022,114 +5193,114 @@
         <v>22</v>
       </c>
       <c r="G7" t="s" s="63">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="H7" t="s" s="64">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="I7" t="s" s="65">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="66">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B8" t="s" s="67">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C8" t="s" s="68">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D8" t="s" s="69">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E8" t="s" s="70">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="F8" t="s" s="71">
         <v>22</v>
       </c>
       <c r="G8" t="s" s="72">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="H8" t="s" s="73">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="I8" t="s" s="74">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="75">
+        <v>64</v>
+      </c>
+      <c r="B9" t="s" s="76">
+        <v>65</v>
+      </c>
+      <c r="C9" t="s" s="77">
+        <v>65</v>
+      </c>
+      <c r="D9" t="s" s="78">
+        <v>66</v>
+      </c>
+      <c r="E9" t="s" s="79">
         <v>60</v>
-      </c>
-      <c r="B9" t="s" s="76">
-        <v>61</v>
-      </c>
-      <c r="C9" t="s" s="77">
-        <v>61</v>
-      </c>
-      <c r="D9" t="s" s="78">
-        <v>62</v>
-      </c>
-      <c r="E9" t="s" s="79">
-        <v>56</v>
       </c>
       <c r="F9" t="s" s="80">
         <v>14</v>
       </c>
       <c r="G9" t="s" s="81">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="H9" t="s" s="82">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="I9" t="s" s="83">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="84">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B10" t="s" s="85">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C10" t="s" s="86">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="D10" t="s" s="87">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="E10" t="s" s="88">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="F10" t="s" s="89">
         <v>22</v>
       </c>
       <c r="G10" t="s" s="90">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="H10" t="s" s="91">
         <v>16</v>
       </c>
       <c r="I10" t="s" s="92">
-        <v>71</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="93">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B11" t="s" s="94">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C11" t="s" s="95">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="D11" t="s" s="96">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="E11" t="s" s="97">
         <v>22</v>
@@ -5138,27 +5309,27 @@
         <v>21</v>
       </c>
       <c r="G11" t="s" s="99">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="H11" t="s" s="100">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="I11" t="s" s="101">
-        <v>77</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="102">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B12" t="s" s="103">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C12" t="s" s="104">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="D12" t="s" s="105">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="E12" t="s" s="106">
         <v>21</v>
@@ -5167,56 +5338,56 @@
         <v>21</v>
       </c>
       <c r="G12" t="s" s="108">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="H12" t="s" s="109">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="I12" t="s" s="110">
-        <v>83</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="111">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B13" t="s" s="112">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="C13" t="s" s="113">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="D13" t="s" s="114">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E13" t="s" s="115">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="F13" t="s" s="116">
         <v>14</v>
       </c>
       <c r="G13" t="s" s="117">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="H13" t="s" s="118">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="I13" t="s" s="119">
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="120">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B14" t="s" s="121">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="C14" t="s" s="122">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="D14" t="s" s="123">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="E14" t="s" s="124">
         <v>21</v>
@@ -5225,27 +5396,27 @@
         <v>14</v>
       </c>
       <c r="G14" t="s" s="126">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="H14" t="s" s="127">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="I14" t="s" s="128">
-        <v>96</v>
+        <v>102</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="129">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="B15" t="s" s="130">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="C15" t="s" s="131">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="D15" t="s" s="132">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="E15" t="s" s="133">
         <v>29</v>
@@ -5254,404 +5425,404 @@
         <v>21</v>
       </c>
       <c r="G15" t="s" s="135">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="H15" t="s" s="136">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="I15" t="s" s="137">
-        <v>102</v>
+        <v>109</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="138">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="B16" t="s" s="139">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="C16" t="s" s="140">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="D16" t="s" s="141">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="E16" t="s" s="142">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="F16" t="s" s="143">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="G16" t="s" s="144">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="H16" t="s" s="145">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="I16" t="s" s="146">
-        <v>109</v>
+        <v>117</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="147">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="B17" t="s" s="148">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="C17" t="s" s="149">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="D17" t="s" s="150">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="E17" t="s" s="151">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F17" t="s" s="152">
         <v>21</v>
       </c>
       <c r="G17" t="s" s="153">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="H17" t="s" s="154">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="I17" t="s" s="155">
-        <v>115</v>
+        <v>123</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="156">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="B18" t="s" s="157">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="C18" t="s" s="158">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="D18" t="s" s="159">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="E18" t="s" s="160">
         <v>22</v>
       </c>
       <c r="F18" t="s" s="161">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="G18" t="s" s="162">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="H18" t="s" s="163">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="I18" t="s" s="164">
-        <v>121</v>
+        <v>129</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="165">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="B19" t="s" s="166">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="C19" t="s" s="167">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="D19" t="s" s="168">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="E19" t="s" s="169">
         <v>14</v>
       </c>
       <c r="F19" t="s" s="170">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="G19" t="s" s="171">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="H19" t="s" s="172">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="I19" t="s" s="173">
-        <v>127</v>
+        <v>135</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="174">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B20" t="s" s="175">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="C20" t="s" s="176">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="D20" t="s" s="177">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="E20" t="s" s="178">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="F20" t="s" s="179">
         <v>21</v>
       </c>
       <c r="G20" t="s" s="180">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="H20" t="s" s="181">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="I20" t="s" s="182">
-        <v>134</v>
+        <v>142</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="183">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="B21" t="s" s="184">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="C21" t="s" s="185">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="D21" t="s" s="186">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="E21" t="s" s="187">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="F21" t="s" s="188">
         <v>21</v>
       </c>
       <c r="G21" t="s" s="189">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="H21" t="s" s="190">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="I21" t="s" s="191">
-        <v>141</v>
+        <v>149</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="192">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="B22" t="s" s="193">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="C22" t="s" s="194">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="D22" t="s" s="195">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="E22" t="s" s="196">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="F22" t="s" s="197">
         <v>21</v>
       </c>
       <c r="G22" t="s" s="198">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="H22" t="s" s="199">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="I22" t="s" s="200">
-        <v>147</v>
+        <v>156</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="201">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="B23" t="s" s="202">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="C23" t="s" s="203">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="D23" t="s" s="204">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="E23" t="s" s="205">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F23" t="s" s="206">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G23" t="s" s="207">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="H23" t="s" s="208">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="I23" t="s" s="209">
-        <v>153</v>
+        <v>162</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="210">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="B24" t="s" s="211">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="C24" t="s" s="212">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="D24" t="s" s="213">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="E24" t="s" s="214">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="F24" t="s" s="215">
         <v>14</v>
       </c>
       <c r="G24" t="s" s="216">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="H24" t="s" s="217">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="I24" t="s" s="218">
-        <v>159</v>
+        <v>168</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="219">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="B25" t="s" s="220">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="C25" t="s" s="221">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="D25" t="s" s="222">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="E25" t="s" s="223">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="F25" t="s" s="224">
         <v>14</v>
       </c>
       <c r="G25" t="s" s="225">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="H25" t="s" s="226">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="I25" t="s" s="227">
-        <v>166</v>
+        <v>175</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="228">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="B26" t="s" s="229">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="C26" t="s" s="230">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="D26" t="s" s="231">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="E26" t="s" s="232">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="F26" t="s" s="233">
         <v>21</v>
       </c>
       <c r="G26" t="s" s="234">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="H26" t="s" s="235">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="I26" t="s" s="236">
-        <v>172</v>
+        <v>182</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="237">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="B27" t="s" s="238">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="C27" t="s" s="239">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="D27" t="s" s="240">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="E27" t="s" s="241">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s" s="242">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="G27" t="s" s="243">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="H27" t="s" s="244">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="I27" t="s" s="245">
-        <v>178</v>
+        <v>189</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="246">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="B28" t="s" s="247">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="C28" t="s" s="248">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="D28" t="s" s="249">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="E28" t="s" s="250">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="F28" t="s" s="251">
         <v>14</v>
       </c>
       <c r="G28" t="s" s="252">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="H28" t="s" s="253">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="I28" t="s" s="254">
-        <v>185</v>
+        <v>196</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="255">
-        <v>186</v>
+        <v>197</v>
       </c>
       <c r="B29" t="s" s="256">
-        <v>187</v>
+        <v>198</v>
       </c>
       <c r="C29" t="s" s="257">
-        <v>187</v>
+        <v>199</v>
       </c>
       <c r="D29" t="s" s="258">
-        <v>188</v>
+        <v>200</v>
       </c>
       <c r="E29" t="s" s="259">
         <v>22</v>
@@ -5660,259 +5831,259 @@
         <v>21</v>
       </c>
       <c r="G29" t="s" s="261">
-        <v>189</v>
+        <v>201</v>
       </c>
       <c r="H29" t="s" s="262">
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="I29" t="s" s="263">
-        <v>191</v>
+        <v>203</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="264">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="B30" t="s" s="265">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="C30" t="s" s="266">
-        <v>193</v>
+        <v>206</v>
       </c>
       <c r="D30" t="s" s="267">
-        <v>194</v>
+        <v>207</v>
       </c>
       <c r="E30" t="s" s="268">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="F30" t="s" s="269">
         <v>22</v>
       </c>
       <c r="G30" t="s" s="270">
-        <v>195</v>
+        <v>208</v>
       </c>
       <c r="H30" t="s" s="271">
-        <v>196</v>
+        <v>209</v>
       </c>
       <c r="I30" t="s" s="272">
-        <v>197</v>
+        <v>210</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="273">
-        <v>198</v>
+        <v>211</v>
       </c>
       <c r="B31" t="s" s="274">
-        <v>199</v>
+        <v>212</v>
       </c>
       <c r="C31" t="s" s="275">
-        <v>199</v>
+        <v>213</v>
       </c>
       <c r="D31" t="s" s="276">
-        <v>200</v>
+        <v>214</v>
       </c>
       <c r="E31" t="s" s="277">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="F31" t="s" s="278">
         <v>14</v>
       </c>
       <c r="G31" t="s" s="279">
-        <v>201</v>
+        <v>215</v>
       </c>
       <c r="H31" t="s" s="280">
-        <v>202</v>
+        <v>216</v>
       </c>
       <c r="I31" t="s" s="281">
-        <v>203</v>
+        <v>217</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="282">
-        <v>204</v>
+        <v>218</v>
       </c>
       <c r="B32" t="s" s="283">
-        <v>205</v>
+        <v>219</v>
       </c>
       <c r="C32" t="s" s="284">
-        <v>205</v>
+        <v>219</v>
       </c>
       <c r="D32" t="s" s="285">
-        <v>206</v>
+        <v>220</v>
       </c>
       <c r="E32" t="s" s="286">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="F32" t="s" s="287">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G32" t="s" s="288">
-        <v>207</v>
+        <v>221</v>
       </c>
       <c r="H32" t="s" s="289">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="I32" t="s" s="290">
-        <v>209</v>
+        <v>223</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="291">
-        <v>210</v>
+        <v>224</v>
       </c>
       <c r="B33" t="s" s="292">
-        <v>211</v>
+        <v>225</v>
       </c>
       <c r="C33" t="s" s="293">
-        <v>211</v>
+        <v>225</v>
       </c>
       <c r="D33" t="s" s="294">
-        <v>212</v>
+        <v>226</v>
       </c>
       <c r="E33" t="s" s="295">
         <v>22</v>
       </c>
       <c r="F33" t="s" s="296">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="G33" t="s" s="297">
-        <v>213</v>
+        <v>227</v>
       </c>
       <c r="H33" t="s" s="298">
-        <v>214</v>
+        <v>228</v>
       </c>
       <c r="I33" t="s" s="299">
-        <v>215</v>
+        <v>229</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="300">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="B34" t="s" s="301">
-        <v>217</v>
+        <v>231</v>
       </c>
       <c r="C34" t="s" s="302">
-        <v>217</v>
+        <v>231</v>
       </c>
       <c r="D34" t="s" s="303">
-        <v>218</v>
+        <v>232</v>
       </c>
       <c r="E34" t="s" s="304">
         <v>14</v>
       </c>
       <c r="F34" t="s" s="305">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G34" t="s" s="306">
-        <v>219</v>
+        <v>233</v>
       </c>
       <c r="H34" t="s" s="307">
-        <v>220</v>
+        <v>234</v>
       </c>
       <c r="I34" t="s" s="308">
-        <v>221</v>
+        <v>235</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="309">
-        <v>222</v>
+        <v>236</v>
       </c>
       <c r="B35" t="s" s="310">
-        <v>223</v>
+        <v>237</v>
       </c>
       <c r="C35" t="s" s="311">
-        <v>223</v>
+        <v>237</v>
       </c>
       <c r="D35" t="s" s="312">
-        <v>224</v>
+        <v>238</v>
       </c>
       <c r="E35" t="s" s="313">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="F35" t="s" s="314">
         <v>14</v>
       </c>
       <c r="G35" t="s" s="315">
-        <v>225</v>
+        <v>239</v>
       </c>
       <c r="H35" t="s" s="316">
-        <v>226</v>
+        <v>240</v>
       </c>
       <c r="I35" t="s" s="317">
-        <v>227</v>
+        <v>241</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="318">
-        <v>228</v>
+        <v>242</v>
       </c>
       <c r="B36" t="s" s="319">
-        <v>229</v>
+        <v>243</v>
       </c>
       <c r="C36" t="s" s="320">
-        <v>229</v>
+        <v>244</v>
       </c>
       <c r="D36" t="s" s="321">
-        <v>230</v>
+        <v>245</v>
       </c>
       <c r="E36" t="s" s="322">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="F36" t="s" s="323">
         <v>21</v>
       </c>
       <c r="G36" t="s" s="324">
-        <v>231</v>
+        <v>246</v>
       </c>
       <c r="H36" t="s" s="325">
-        <v>232</v>
+        <v>247</v>
       </c>
       <c r="I36" t="s" s="326">
-        <v>233</v>
+        <v>248</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="327">
-        <v>234</v>
+        <v>249</v>
       </c>
       <c r="B37" t="s" s="328">
-        <v>235</v>
+        <v>250</v>
       </c>
       <c r="C37" t="s" s="329">
-        <v>235</v>
+        <v>250</v>
       </c>
       <c r="D37" t="s" s="330">
-        <v>236</v>
+        <v>251</v>
       </c>
       <c r="E37" t="s" s="331">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="F37" t="s" s="332">
         <v>21</v>
       </c>
       <c r="G37" t="s" s="333">
-        <v>237</v>
+        <v>252</v>
       </c>
       <c r="H37" t="s" s="334">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="I37" t="s" s="335">
-        <v>239</v>
+        <v>254</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="336">
-        <v>240</v>
+        <v>255</v>
       </c>
       <c r="B38" t="s" s="337">
-        <v>241</v>
+        <v>256</v>
       </c>
       <c r="C38" t="s" s="338">
-        <v>241</v>
+        <v>256</v>
       </c>
       <c r="D38" t="s" s="339">
-        <v>242</v>
+        <v>257</v>
       </c>
       <c r="E38" t="s" s="340">
         <v>29</v>
@@ -5921,85 +6092,85 @@
         <v>14</v>
       </c>
       <c r="G38" t="s" s="342">
-        <v>243</v>
+        <v>258</v>
       </c>
       <c r="H38" t="s" s="343">
-        <v>244</v>
+        <v>259</v>
       </c>
       <c r="I38" t="s" s="344">
-        <v>245</v>
+        <v>260</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="345">
-        <v>246</v>
+        <v>261</v>
       </c>
       <c r="B39" t="s" s="346">
-        <v>247</v>
+        <v>262</v>
       </c>
       <c r="C39" t="s" s="347">
-        <v>247</v>
+        <v>263</v>
       </c>
       <c r="D39" t="s" s="348">
-        <v>248</v>
+        <v>264</v>
       </c>
       <c r="E39" t="s" s="349">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="F39" t="s" s="350">
         <v>14</v>
       </c>
       <c r="G39" t="s" s="351">
-        <v>249</v>
+        <v>265</v>
       </c>
       <c r="H39" t="s" s="352">
-        <v>250</v>
+        <v>266</v>
       </c>
       <c r="I39" t="s" s="353">
-        <v>251</v>
+        <v>267</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="354">
-        <v>252</v>
+        <v>268</v>
       </c>
       <c r="B40" t="s" s="355">
-        <v>253</v>
+        <v>269</v>
       </c>
       <c r="C40" t="s" s="356">
-        <v>253</v>
+        <v>269</v>
       </c>
       <c r="D40" t="s" s="357">
-        <v>254</v>
+        <v>270</v>
       </c>
       <c r="E40" t="s" s="358">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="F40" t="s" s="359">
         <v>22</v>
       </c>
       <c r="G40" t="s" s="360">
-        <v>255</v>
+        <v>271</v>
       </c>
       <c r="H40" t="s" s="361">
-        <v>256</v>
+        <v>272</v>
       </c>
       <c r="I40" t="s" s="362">
-        <v>257</v>
+        <v>273</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="363">
-        <v>258</v>
+        <v>274</v>
       </c>
       <c r="B41" t="s" s="364">
-        <v>259</v>
+        <v>275</v>
       </c>
       <c r="C41" t="s" s="365">
-        <v>259</v>
+        <v>276</v>
       </c>
       <c r="D41" t="s" s="366">
-        <v>260</v>
+        <v>277</v>
       </c>
       <c r="E41" t="s" s="367">
         <v>14</v>
@@ -6008,172 +6179,172 @@
         <v>21</v>
       </c>
       <c r="G41" t="s" s="369">
-        <v>261</v>
+        <v>278</v>
       </c>
       <c r="H41" t="s" s="370">
-        <v>262</v>
+        <v>279</v>
       </c>
       <c r="I41" t="s" s="371">
-        <v>263</v>
+        <v>280</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="372">
-        <v>264</v>
+        <v>281</v>
       </c>
       <c r="B42" t="s" s="373">
-        <v>265</v>
+        <v>282</v>
       </c>
       <c r="C42" t="s" s="374">
-        <v>265</v>
+        <v>282</v>
       </c>
       <c r="D42" t="s" s="375">
-        <v>266</v>
+        <v>283</v>
       </c>
       <c r="E42" t="s" s="376">
-        <v>267</v>
+        <v>284</v>
       </c>
       <c r="F42" t="s" s="377">
         <v>14</v>
       </c>
       <c r="G42" t="s" s="378">
-        <v>268</v>
+        <v>285</v>
       </c>
       <c r="H42" t="s" s="379">
-        <v>269</v>
+        <v>286</v>
       </c>
       <c r="I42" t="s" s="380">
-        <v>270</v>
+        <v>287</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="381">
-        <v>271</v>
+        <v>288</v>
       </c>
       <c r="B43" t="s" s="382">
-        <v>272</v>
+        <v>289</v>
       </c>
       <c r="C43" t="s" s="383">
-        <v>272</v>
+        <v>289</v>
       </c>
       <c r="D43" t="s" s="384">
-        <v>273</v>
+        <v>290</v>
       </c>
       <c r="E43" t="s" s="385">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="F43" t="s" s="386">
         <v>21</v>
       </c>
       <c r="G43" t="s" s="387">
-        <v>274</v>
+        <v>291</v>
       </c>
       <c r="H43" t="s" s="388">
-        <v>275</v>
+        <v>292</v>
       </c>
       <c r="I43" t="s" s="389">
-        <v>276</v>
+        <v>293</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="390">
-        <v>277</v>
+        <v>294</v>
       </c>
       <c r="B44" t="s" s="391">
-        <v>278</v>
+        <v>295</v>
       </c>
       <c r="C44" t="s" s="392">
-        <v>278</v>
+        <v>296</v>
       </c>
       <c r="D44" t="s" s="393">
-        <v>279</v>
+        <v>297</v>
       </c>
       <c r="E44" t="s" s="394">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="F44" t="s" s="395">
         <v>14</v>
       </c>
       <c r="G44" t="s" s="396">
-        <v>280</v>
+        <v>298</v>
       </c>
       <c r="H44" t="s" s="397">
-        <v>281</v>
+        <v>299</v>
       </c>
       <c r="I44" t="s" s="398">
-        <v>282</v>
+        <v>300</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="399">
-        <v>283</v>
+        <v>301</v>
       </c>
       <c r="B45" t="s" s="400">
-        <v>284</v>
+        <v>302</v>
       </c>
       <c r="C45" t="s" s="401">
-        <v>284</v>
+        <v>302</v>
       </c>
       <c r="D45" t="s" s="402">
-        <v>285</v>
+        <v>303</v>
       </c>
       <c r="E45" t="s" s="403">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="F45" t="s" s="404">
         <v>22</v>
       </c>
       <c r="G45" t="s" s="405">
-        <v>286</v>
+        <v>304</v>
       </c>
       <c r="H45" t="s" s="406">
-        <v>287</v>
+        <v>305</v>
       </c>
       <c r="I45" t="s" s="407">
-        <v>288</v>
+        <v>306</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="408">
-        <v>289</v>
+        <v>307</v>
       </c>
       <c r="B46" t="s" s="409">
-        <v>290</v>
+        <v>308</v>
       </c>
       <c r="C46" t="s" s="410">
-        <v>290</v>
+        <v>308</v>
       </c>
       <c r="D46" t="s" s="411">
-        <v>291</v>
+        <v>309</v>
       </c>
       <c r="E46" t="s" s="412">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="F46" t="s" s="413">
         <v>21</v>
       </c>
       <c r="G46" t="s" s="414">
-        <v>292</v>
+        <v>310</v>
       </c>
       <c r="H46" t="s" s="415">
-        <v>293</v>
+        <v>311</v>
       </c>
       <c r="I46" t="s" s="416">
-        <v>294</v>
+        <v>312</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="417">
-        <v>295</v>
+        <v>313</v>
       </c>
       <c r="B47" t="s" s="418">
-        <v>296</v>
+        <v>314</v>
       </c>
       <c r="C47" t="s" s="419">
-        <v>296</v>
+        <v>314</v>
       </c>
       <c r="D47" t="s" s="420">
-        <v>297</v>
+        <v>315</v>
       </c>
       <c r="E47" t="s" s="421">
         <v>14</v>
@@ -6182,27 +6353,27 @@
         <v>22</v>
       </c>
       <c r="G47" t="s" s="423">
-        <v>298</v>
+        <v>316</v>
       </c>
       <c r="H47" t="s" s="424">
-        <v>299</v>
+        <v>317</v>
       </c>
       <c r="I47" t="s" s="425">
-        <v>300</v>
+        <v>318</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="426">
-        <v>301</v>
+        <v>319</v>
       </c>
       <c r="B48" t="s" s="427">
-        <v>302</v>
+        <v>320</v>
       </c>
       <c r="C48" t="s" s="428">
-        <v>302</v>
+        <v>320</v>
       </c>
       <c r="D48" t="s" s="429">
-        <v>303</v>
+        <v>321</v>
       </c>
       <c r="E48" t="s" s="430">
         <v>14</v>
@@ -6211,85 +6382,85 @@
         <v>21</v>
       </c>
       <c r="G48" t="s" s="432">
-        <v>304</v>
+        <v>322</v>
       </c>
       <c r="H48" t="s" s="433">
-        <v>305</v>
+        <v>323</v>
       </c>
       <c r="I48" t="s" s="434">
-        <v>306</v>
+        <v>324</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="435">
-        <v>307</v>
+        <v>325</v>
       </c>
       <c r="B49" t="s" s="436">
-        <v>308</v>
+        <v>326</v>
       </c>
       <c r="C49" t="s" s="437">
-        <v>308</v>
+        <v>326</v>
       </c>
       <c r="D49" t="s" s="438">
-        <v>309</v>
+        <v>327</v>
       </c>
       <c r="E49" t="s" s="439">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="F49" t="s" s="440">
         <v>14</v>
       </c>
       <c r="G49" t="s" s="441">
-        <v>310</v>
+        <v>328</v>
       </c>
       <c r="H49" t="s" s="442">
-        <v>311</v>
+        <v>329</v>
       </c>
       <c r="I49" t="s" s="443">
-        <v>312</v>
+        <v>330</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="444">
-        <v>313</v>
+        <v>331</v>
       </c>
       <c r="B50" t="s" s="445">
-        <v>314</v>
+        <v>332</v>
       </c>
       <c r="C50" t="s" s="446">
-        <v>314</v>
+        <v>332</v>
       </c>
       <c r="D50" t="s" s="447">
-        <v>315</v>
+        <v>333</v>
       </c>
       <c r="E50" t="s" s="448">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="F50" t="s" s="449">
         <v>21</v>
       </c>
       <c r="G50" t="s" s="450">
-        <v>316</v>
+        <v>334</v>
       </c>
       <c r="H50" t="s" s="451">
-        <v>317</v>
+        <v>335</v>
       </c>
       <c r="I50" t="s" s="452">
-        <v>318</v>
+        <v>336</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="453">
-        <v>319</v>
+        <v>337</v>
       </c>
       <c r="B51" t="s" s="454">
-        <v>320</v>
+        <v>338</v>
       </c>
       <c r="C51" t="s" s="455">
-        <v>320</v>
+        <v>338</v>
       </c>
       <c r="D51" t="s" s="456">
-        <v>321</v>
+        <v>339</v>
       </c>
       <c r="E51" t="s" s="457">
         <v>22</v>
@@ -6298,85 +6469,85 @@
         <v>21</v>
       </c>
       <c r="G51" t="s" s="459">
-        <v>322</v>
+        <v>340</v>
       </c>
       <c r="H51" t="s" s="460">
-        <v>323</v>
+        <v>341</v>
       </c>
       <c r="I51" t="s" s="461">
-        <v>324</v>
+        <v>342</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="462">
-        <v>325</v>
+        <v>343</v>
       </c>
       <c r="B52" t="s" s="463">
-        <v>326</v>
+        <v>344</v>
       </c>
       <c r="C52" t="s" s="464">
-        <v>326</v>
+        <v>344</v>
       </c>
       <c r="D52" t="s" s="465">
-        <v>327</v>
+        <v>345</v>
       </c>
       <c r="E52" t="s" s="466">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="F52" t="s" s="467">
         <v>21</v>
       </c>
       <c r="G52" t="s" s="468">
-        <v>328</v>
+        <v>346</v>
       </c>
       <c r="H52" t="s" s="469">
-        <v>329</v>
+        <v>347</v>
       </c>
       <c r="I52" t="s" s="470">
-        <v>330</v>
+        <v>348</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="471">
-        <v>331</v>
+        <v>349</v>
       </c>
       <c r="B53" t="s" s="472">
-        <v>332</v>
+        <v>350</v>
       </c>
       <c r="C53" t="s" s="473">
-        <v>332</v>
+        <v>350</v>
       </c>
       <c r="D53" t="s" s="474">
-        <v>333</v>
+        <v>351</v>
       </c>
       <c r="E53" t="s" s="475">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="F53" t="s" s="476">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G53" t="s" s="477">
-        <v>334</v>
+        <v>352</v>
       </c>
       <c r="H53" t="s" s="478">
-        <v>335</v>
+        <v>353</v>
       </c>
       <c r="I53" t="s" s="479">
-        <v>336</v>
+        <v>354</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="480">
-        <v>337</v>
+        <v>355</v>
       </c>
       <c r="B54" t="s" s="481">
-        <v>338</v>
+        <v>356</v>
       </c>
       <c r="C54" t="s" s="482">
-        <v>338</v>
+        <v>356</v>
       </c>
       <c r="D54" t="s" s="483">
-        <v>339</v>
+        <v>357</v>
       </c>
       <c r="E54" t="s" s="484">
         <v>21</v>
@@ -6385,27 +6556,27 @@
         <v>21</v>
       </c>
       <c r="G54" t="s" s="486">
-        <v>340</v>
+        <v>358</v>
       </c>
       <c r="H54" t="s" s="487">
-        <v>341</v>
+        <v>359</v>
       </c>
       <c r="I54" t="s" s="488">
-        <v>342</v>
+        <v>360</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="489">
-        <v>343</v>
+        <v>361</v>
       </c>
       <c r="B55" t="s" s="490">
-        <v>344</v>
+        <v>362</v>
       </c>
       <c r="C55" t="s" s="491">
-        <v>344</v>
+        <v>362</v>
       </c>
       <c r="D55" t="s" s="492">
-        <v>345</v>
+        <v>363</v>
       </c>
       <c r="E55" t="s" s="493">
         <v>22</v>
@@ -6414,187 +6585,303 @@
         <v>21</v>
       </c>
       <c r="G55" t="s" s="495">
-        <v>346</v>
+        <v>364</v>
       </c>
       <c r="H55" t="s" s="496">
-        <v>347</v>
+        <v>365</v>
       </c>
       <c r="I55" t="s" s="497">
-        <v>348</v>
+        <v>366</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="498">
-        <v>349</v>
+        <v>367</v>
       </c>
       <c r="B56" t="s" s="499">
-        <v>350</v>
+        <v>368</v>
       </c>
       <c r="C56" t="s" s="500">
-        <v>350</v>
+        <v>368</v>
       </c>
       <c r="D56" t="s" s="501">
-        <v>351</v>
+        <v>369</v>
       </c>
       <c r="E56" t="s" s="502">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="F56" t="s" s="503">
         <v>21</v>
       </c>
       <c r="G56" t="s" s="504">
-        <v>352</v>
+        <v>370</v>
       </c>
       <c r="H56" t="s" s="505">
-        <v>353</v>
+        <v>371</v>
       </c>
       <c r="I56" t="s" s="506">
-        <v>354</v>
+        <v>372</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="507">
-        <v>355</v>
+        <v>373</v>
       </c>
       <c r="B57" t="s" s="508">
-        <v>356</v>
+        <v>374</v>
       </c>
       <c r="C57" t="s" s="509">
-        <v>356</v>
+        <v>374</v>
       </c>
       <c r="D57" t="s" s="510">
-        <v>357</v>
+        <v>375</v>
       </c>
       <c r="E57" t="s" s="511">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="F57" t="s" s="512">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G57" t="s" s="513">
-        <v>358</v>
+        <v>376</v>
       </c>
       <c r="H57" t="s" s="514">
-        <v>359</v>
+        <v>377</v>
       </c>
       <c r="I57" t="s" s="515">
-        <v>360</v>
+        <v>378</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="516">
-        <v>361</v>
+        <v>379</v>
       </c>
       <c r="B58" t="s" s="517">
-        <v>362</v>
+        <v>380</v>
       </c>
       <c r="C58" t="s" s="518">
-        <v>362</v>
+        <v>380</v>
       </c>
       <c r="D58" t="s" s="519">
-        <v>363</v>
+        <v>381</v>
       </c>
       <c r="E58" t="s" s="520">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="F58" t="s" s="521">
         <v>14</v>
       </c>
       <c r="G58" t="s" s="522">
-        <v>364</v>
+        <v>382</v>
       </c>
       <c r="H58" t="s" s="523">
-        <v>365</v>
+        <v>383</v>
       </c>
       <c r="I58" t="s" s="524">
-        <v>366</v>
+        <v>384</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="525">
-        <v>367</v>
+        <v>385</v>
       </c>
       <c r="B59" t="s" s="526">
-        <v>368</v>
+        <v>386</v>
       </c>
       <c r="C59" t="s" s="527">
-        <v>368</v>
+        <v>386</v>
       </c>
       <c r="D59" t="s" s="528">
-        <v>369</v>
+        <v>387</v>
       </c>
       <c r="E59" t="s" s="529">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F59" t="s" s="530">
-        <v>370</v>
+        <v>388</v>
       </c>
       <c r="G59" t="s" s="531">
-        <v>371</v>
+        <v>389</v>
       </c>
       <c r="H59" t="s" s="532">
-        <v>372</v>
+        <v>390</v>
       </c>
       <c r="I59" t="s" s="533">
-        <v>373</v>
+        <v>391</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="534">
-        <v>374</v>
+        <v>392</v>
       </c>
       <c r="B60" t="s" s="535">
-        <v>375</v>
+        <v>393</v>
       </c>
       <c r="C60" t="s" s="536">
-        <v>375</v>
+        <v>393</v>
       </c>
       <c r="D60" t="s" s="537">
-        <v>376</v>
+        <v>394</v>
       </c>
       <c r="E60" t="s" s="538">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="F60" t="s" s="539">
         <v>14</v>
       </c>
       <c r="G60" t="s" s="540">
-        <v>377</v>
+        <v>395</v>
       </c>
       <c r="H60" t="s" s="541">
         <v>16</v>
       </c>
       <c r="I60" t="s" s="542">
-        <v>378</v>
+        <v>396</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="543">
-        <v>379</v>
+        <v>397</v>
       </c>
       <c r="B61" t="s" s="544">
-        <v>380</v>
+        <v>398</v>
       </c>
       <c r="C61" t="s" s="545">
-        <v>380</v>
+        <v>398</v>
       </c>
       <c r="D61" t="s" s="546">
-        <v>381</v>
+        <v>399</v>
       </c>
       <c r="E61" t="s" s="547">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="F61" t="s" s="548">
         <v>14</v>
       </c>
       <c r="G61" t="s" s="549">
-        <v>382</v>
+        <v>400</v>
       </c>
       <c r="H61" t="s" s="550">
-        <v>383</v>
+        <v>401</v>
       </c>
       <c r="I61" t="s" s="551">
-        <v>384</v>
+        <v>402</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s" s="552">
+        <v>403</v>
+      </c>
+      <c r="B62" t="s" s="553">
+        <v>398</v>
+      </c>
+      <c r="C62" t="s" s="554">
+        <v>398</v>
+      </c>
+      <c r="D62" t="s" s="555">
+        <v>399</v>
+      </c>
+      <c r="E62" t="s" s="556">
+        <v>146</v>
+      </c>
+      <c r="F62" t="s" s="557">
+        <v>14</v>
+      </c>
+      <c r="G62" t="s" s="558">
+        <v>400</v>
+      </c>
+      <c r="H62" t="s" s="559">
+        <v>401</v>
+      </c>
+      <c r="I62" t="s" s="560">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s" s="561">
+        <v>16</v>
+      </c>
+      <c r="B63" t="s" s="562">
+        <v>398</v>
+      </c>
+      <c r="C63" t="s" s="563">
+        <v>398</v>
+      </c>
+      <c r="D63" t="s" s="564">
+        <v>399</v>
+      </c>
+      <c r="E63" t="s" s="565">
+        <v>146</v>
+      </c>
+      <c r="F63" t="s" s="566">
+        <v>14</v>
+      </c>
+      <c r="G63" t="s" s="567">
+        <v>400</v>
+      </c>
+      <c r="H63" t="s" s="568">
+        <v>401</v>
+      </c>
+      <c r="I63" t="s" s="569">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s" s="570">
+        <v>16</v>
+      </c>
+      <c r="B64" t="s" s="571">
+        <v>398</v>
+      </c>
+      <c r="C64" t="s" s="572">
+        <v>398</v>
+      </c>
+      <c r="D64" t="s" s="573">
+        <v>399</v>
+      </c>
+      <c r="E64" t="s" s="574">
+        <v>146</v>
+      </c>
+      <c r="F64" t="s" s="575">
+        <v>14</v>
+      </c>
+      <c r="G64" t="s" s="576">
+        <v>400</v>
+      </c>
+      <c r="H64" t="s" s="577">
+        <v>401</v>
+      </c>
+      <c r="I64" t="s" s="578">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s" s="579">
+        <v>16</v>
+      </c>
+      <c r="B65" t="s" s="580">
+        <v>398</v>
+      </c>
+      <c r="C65" t="s" s="581">
+        <v>398</v>
+      </c>
+      <c r="D65" t="s" s="582">
+        <v>399</v>
+      </c>
+      <c r="E65" t="s" s="583">
+        <v>146</v>
+      </c>
+      <c r="F65" t="s" s="584">
+        <v>14</v>
+      </c>
+      <c r="G65" t="s" s="585">
+        <v>400</v>
+      </c>
+      <c r="H65" t="s" s="586">
+        <v>401</v>
+      </c>
+      <c r="I65" t="s" s="587">
+        <v>405</v>
       </c>
     </row>
   </sheetData>
